--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_18_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_18_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32615.7742025792</v>
+        <v>-14796.40543321896</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23110247.98504836</v>
+        <v>23117713.28184396</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2565378.372484379</v>
+        <v>2548538.716583501</v>
       </c>
     </row>
     <row r="11">
@@ -22559,49 +22561,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>411.0910991671059</v>
+        <v>411.1760772090881</v>
       </c>
       <c r="H2" t="n">
-        <v>320.7690783136127</v>
+        <v>321.6393596860628</v>
       </c>
       <c r="I2" t="n">
-        <v>138.2481755487984</v>
+        <v>141.5242915123168</v>
       </c>
       <c r="J2" t="n">
-        <v>74.80030455040011</v>
+        <v>82.01270964108606</v>
       </c>
       <c r="K2" t="n">
-        <v>70.46480586072633</v>
+        <v>81.2743314685184</v>
       </c>
       <c r="L2" t="n">
-        <v>57.13228571623071</v>
+        <v>70.54245807633525</v>
       </c>
       <c r="M2" t="n">
-        <v>37.57934483655106</v>
+        <v>52.50074545075637</v>
       </c>
       <c r="N2" t="n">
-        <v>34.40083276460621</v>
+        <v>49.56367724059345</v>
       </c>
       <c r="O2" t="n">
-        <v>43.42807408235635</v>
+        <v>57.74591815338317</v>
       </c>
       <c r="P2" t="n">
-        <v>65.38007183670243</v>
+        <v>77.60002049629389</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.63342487673017</v>
+        <v>97.81009740783446</v>
       </c>
       <c r="R2" t="n">
-        <v>121.6533831199176</v>
+        <v>126.9913850495814</v>
       </c>
       <c r="S2" t="n">
-        <v>165.9452104078107</v>
+        <v>167.8816475394799</v>
       </c>
       <c r="T2" t="n">
-        <v>218.3863943170558</v>
+        <v>218.7583856958329</v>
       </c>
       <c r="U2" t="n">
-        <v>252.2683351220861</v>
+        <v>252.2751333654446</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -22638,49 +22640,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>126.9854363758741</v>
+        <v>127.0309036367328</v>
       </c>
       <c r="H3" t="n">
-        <v>94.5366171262896</v>
+        <v>94.97573514563526</v>
       </c>
       <c r="I3" t="n">
-        <v>65.16955647617495</v>
+        <v>66.73498629082682</v>
       </c>
       <c r="J3" t="n">
-        <v>59.99448900991949</v>
+        <v>64.29014807201071</v>
       </c>
       <c r="K3" t="n">
-        <v>38.39792023795113</v>
+        <v>45.73988577757382</v>
       </c>
       <c r="L3" t="n">
-        <v>13.61350529844596</v>
+        <v>23.48568402129196</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>11.52036692897309</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.418125047647706</v>
+        <v>18.23594302922992</v>
       </c>
       <c r="P3" t="n">
-        <v>21.82048350850062</v>
+        <v>30.50273615440041</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.55545282356709</v>
+        <v>61.35930878861527</v>
       </c>
       <c r="R3" t="n">
-        <v>90.06634312508154</v>
+        <v>92.8893016545353</v>
       </c>
       <c r="S3" t="n">
-        <v>142.8056045053299</v>
+        <v>143.6501389339988</v>
       </c>
       <c r="T3" t="n">
-        <v>184.9611451887135</v>
+        <v>185.1444101568237</v>
       </c>
       <c r="U3" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2828503105535</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -22717,49 +22719,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8484416772834</v>
+        <v>166.8865599014431</v>
       </c>
       <c r="H4" t="n">
-        <v>154.3816182209092</v>
+        <v>154.7205238866194</v>
       </c>
       <c r="I4" t="n">
-        <v>131.269940117466</v>
+        <v>132.4162590767394</v>
       </c>
       <c r="J4" t="n">
-        <v>76.16864049337387</v>
+        <v>78.86359894146001</v>
       </c>
       <c r="K4" t="n">
-        <v>60.42909946350711</v>
+        <v>64.85774405223553</v>
       </c>
       <c r="L4" t="n">
-        <v>52.78454267318021</v>
+        <v>58.4516830177862</v>
       </c>
       <c r="M4" t="n">
-        <v>52.97980340177091</v>
+        <v>58.95500830344886</v>
       </c>
       <c r="N4" t="n">
-        <v>45.27133502328439</v>
+        <v>51.10446290764006</v>
       </c>
       <c r="O4" t="n">
-        <v>58.48650097449923</v>
+        <v>63.87433869480827</v>
       </c>
       <c r="P4" t="n">
-        <v>65.68959993062856</v>
+        <v>70.29982587808107</v>
       </c>
       <c r="Q4" t="n">
-        <v>91.10135641693829</v>
+        <v>94.29323789634184</v>
       </c>
       <c r="R4" t="n">
-        <v>130.8455323770033</v>
+        <v>132.5594663469447</v>
       </c>
       <c r="S4" t="n">
-        <v>204.9135390503414</v>
+        <v>205.5778357386506</v>
       </c>
       <c r="T4" t="n">
-        <v>229.2145141050582</v>
+        <v>229.3773828810129</v>
       </c>
       <c r="U4" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2995739570064</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -22796,49 +22798,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>411.0328269958786</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H5" t="n">
-        <v>320.1722984400315</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I5" t="n">
-        <v>136.0016376675592</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J5" t="n">
-        <v>69.85452685770001</v>
+        <v>74.8003045504001</v>
       </c>
       <c r="K5" t="n">
-        <v>63.05236715997609</v>
+        <v>70.46480586072632</v>
       </c>
       <c r="L5" t="n">
-        <v>47.93650005528406</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M5" t="n">
-        <v>27.34726145054154</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N5" t="n">
-        <v>24.00318357209721</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O5" t="n">
-        <v>33.60986879248847</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P5" t="n">
-        <v>57.00046077400765</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q5" t="n">
-        <v>82.34068594611185</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R5" t="n">
-        <v>117.9929438440629</v>
+        <v>121.6533831199176</v>
       </c>
       <c r="S5" t="n">
-        <v>164.6173333059695</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T5" t="n">
-        <v>218.1313078875085</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U5" t="n">
-        <v>252.2636733483879</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -22875,22 +22877,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>126.9542580155802</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H6" t="n">
-        <v>94.23549980450369</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I6" t="n">
-        <v>64.09609100114344</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J6" t="n">
-        <v>57.04881769811646</v>
+        <v>59.9944890099195</v>
       </c>
       <c r="K6" t="n">
-        <v>33.3632987864562</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L6" t="n">
-        <v>6.84383544603385</v>
+        <v>13.61350529844597</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -22899,25 +22901,25 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P6" t="n">
-        <v>15.86678416430672</v>
+        <v>21.82048350850063</v>
       </c>
       <c r="Q6" t="n">
-        <v>51.57556248148847</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R6" t="n">
-        <v>88.13054984297376</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S6" t="n">
-        <v>142.22648013759</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T6" t="n">
-        <v>184.8354745171779</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U6" t="n">
-        <v>216.2778078354777</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -22954,49 +22956,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>166.822302787362</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H7" t="n">
-        <v>154.1492197268807</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I7" t="n">
-        <v>130.4838724096476</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J7" t="n">
-        <v>74.32062097593014</v>
+        <v>76.16864049337387</v>
       </c>
       <c r="K7" t="n">
-        <v>57.39223570718324</v>
+        <v>60.42909946350712</v>
       </c>
       <c r="L7" t="n">
-        <v>48.8984026206825</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M7" t="n">
-        <v>48.8824135934538</v>
+        <v>52.97980340177092</v>
       </c>
       <c r="N7" t="n">
-        <v>41.27137198649253</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O7" t="n">
-        <v>54.79188769724385</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P7" t="n">
-        <v>62.52822000776997</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q7" t="n">
-        <v>88.91258082542817</v>
+        <v>91.10135641693829</v>
       </c>
       <c r="R7" t="n">
-        <v>129.6702328356279</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S7" t="n">
-        <v>204.4580094868928</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T7" t="n">
-        <v>229.1028297572121</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U7" t="n">
-        <v>284.2960690235111</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -23033,49 +23035,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>410.973916419786</v>
+        <v>411.0910991671059</v>
       </c>
       <c r="H8" t="n">
-        <v>319.5689805026228</v>
+        <v>320.7690783136127</v>
       </c>
       <c r="I8" t="n">
-        <v>133.7304876827481</v>
+        <v>138.2481755487984</v>
       </c>
       <c r="J8" t="n">
-        <v>64.8545653500581</v>
+        <v>74.80030455040011</v>
       </c>
       <c r="K8" t="n">
-        <v>55.55872096633313</v>
+        <v>70.46480586072633</v>
       </c>
       <c r="L8" t="n">
-        <v>38.63996931854626</v>
+        <v>57.13228571623071</v>
       </c>
       <c r="M8" t="n">
-        <v>17.00307975621641</v>
+        <v>37.57934483655106</v>
       </c>
       <c r="N8" t="n">
-        <v>13.49162220344891</v>
+        <v>34.40083276460621</v>
       </c>
       <c r="O8" t="n">
-        <v>23.68409946486128</v>
+        <v>43.42807408235635</v>
       </c>
       <c r="P8" t="n">
-        <v>48.52904629366725</v>
+        <v>65.38007183670243</v>
       </c>
       <c r="Q8" t="n">
-        <v>75.97900647208878</v>
+        <v>88.63342487673017</v>
       </c>
       <c r="R8" t="n">
-        <v>114.2924023685842</v>
+        <v>121.6533831199176</v>
       </c>
       <c r="S8" t="n">
-        <v>163.2749085532586</v>
+        <v>165.9452104078107</v>
       </c>
       <c r="T8" t="n">
-        <v>217.873426840663</v>
+        <v>218.3863943170558</v>
       </c>
       <c r="U8" t="n">
-        <v>252.2589605023005</v>
+        <v>252.2683351220861</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -23112,22 +23114,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>126.9227380785699</v>
+        <v>126.9854363758741</v>
       </c>
       <c r="H9" t="n">
-        <v>93.93108357074615</v>
+        <v>94.5366171262896</v>
       </c>
       <c r="I9" t="n">
-        <v>63.01086509969176</v>
+        <v>65.16955647617495</v>
       </c>
       <c r="J9" t="n">
-        <v>54.07087487733038</v>
+        <v>59.99448900991949</v>
       </c>
       <c r="K9" t="n">
-        <v>28.27352018597891</v>
+        <v>38.39792023795113</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>13.61350529844596</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23136,25 +23138,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>7.418125047647706</v>
       </c>
       <c r="P9" t="n">
-        <v>9.847858648713938</v>
+        <v>21.82048350850062</v>
       </c>
       <c r="Q9" t="n">
-        <v>47.55207017118913</v>
+        <v>55.55545282356709</v>
       </c>
       <c r="R9" t="n">
-        <v>86.17354884157885</v>
+        <v>90.06634312508154</v>
       </c>
       <c r="S9" t="n">
-        <v>141.6410111321571</v>
+        <v>142.8056045053299</v>
       </c>
       <c r="T9" t="n">
-        <v>184.7084270517723</v>
+        <v>184.9611451887135</v>
       </c>
       <c r="U9" t="n">
-        <v>216.2757341554112</v>
+        <v>216.2798590433917</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -23191,49 +23193,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>166.7958775309959</v>
+        <v>166.8484416772834</v>
       </c>
       <c r="H10" t="n">
-        <v>153.9142751748253</v>
+        <v>154.3816182209092</v>
       </c>
       <c r="I10" t="n">
-        <v>129.6891928818367</v>
+        <v>131.269940117466</v>
       </c>
       <c r="J10" t="n">
-        <v>72.45235535084397</v>
+        <v>76.16864049337387</v>
       </c>
       <c r="K10" t="n">
-        <v>54.32210137664431</v>
+        <v>60.42909946350711</v>
       </c>
       <c r="L10" t="n">
-        <v>44.96968768784731</v>
+        <v>52.78454267318021</v>
       </c>
       <c r="M10" t="n">
-        <v>44.74013454325953</v>
+        <v>52.97980340177091</v>
       </c>
       <c r="N10" t="n">
-        <v>37.22758707366296</v>
+        <v>45.27133502328439</v>
       </c>
       <c r="O10" t="n">
-        <v>51.05679782469148</v>
+        <v>58.48650097449923</v>
       </c>
       <c r="P10" t="n">
-        <v>59.33220536508687</v>
+        <v>65.68959993062856</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.69982594916885</v>
+        <v>91.10135641693829</v>
       </c>
       <c r="R10" t="n">
-        <v>128.4820572175649</v>
+        <v>130.8455323770033</v>
       </c>
       <c r="S10" t="n">
-        <v>203.9974893373119</v>
+        <v>204.9135390503414</v>
       </c>
       <c r="T10" t="n">
-        <v>228.9899218436477</v>
+        <v>229.2145141050582</v>
       </c>
       <c r="U10" t="n">
-        <v>284.2946276458911</v>
+        <v>284.2974947811432</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -23270,49 +23272,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H11" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I11" t="n">
-        <v>130.8154595068359</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J11" t="n">
-        <v>58.43709896927</v>
+        <v>56.63596026319202</v>
       </c>
       <c r="K11" t="n">
-        <v>45.94060241807557</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L11" t="n">
-        <v>26.70784276721304</v>
+        <v>23.35894871741081</v>
       </c>
       <c r="M11" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>10.94434319550814</v>
+        <v>7.368778204404322</v>
       </c>
       <c r="P11" t="n">
-        <v>37.65595906245261</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q11" t="n">
-        <v>67.81377078227503</v>
+        <v>65.52209971264539</v>
       </c>
       <c r="R11" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2096977421496</v>
       </c>
       <c r="S11" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5424357028624</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U11" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -23349,19 +23351,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>126.8822821399033</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H12" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I12" t="n">
-        <v>61.61797422893559</v>
+        <v>61.22704274417205</v>
       </c>
       <c r="J12" t="n">
-        <v>50.24867586497896</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K12" t="n">
-        <v>21.74077328296876</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>42.38790508806972</v>
+        <v>40.93852038328524</v>
       </c>
       <c r="R12" t="n">
-        <v>83.66173187770315</v>
+        <v>82.95676040021108</v>
       </c>
       <c r="S12" t="n">
-        <v>140.8895598152587</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T12" t="n">
-        <v>184.5453612288137</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U12" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -23428,49 +23430,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H13" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I13" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J13" t="n">
-        <v>70.05443052261322</v>
+        <v>69.38142423537789</v>
       </c>
       <c r="K13" t="n">
-        <v>50.38157427046082</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L13" t="n">
-        <v>39.92716966793144</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M13" t="n">
-        <v>39.423506304455</v>
+        <v>37.93133099124952</v>
       </c>
       <c r="N13" t="n">
-        <v>32.0373763711288</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O13" t="n">
-        <v>46.26279818095588</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P13" t="n">
-        <v>55.23011048084078</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.85974807944615</v>
+        <v>83.06264625204166</v>
       </c>
       <c r="R13" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S13" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T13" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U13" t="n">
-        <v>284.2927776331653</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23507,49 +23509,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H14" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I14" t="n">
-        <v>130.8154595068359</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J14" t="n">
-        <v>58.43709896927</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K14" t="n">
-        <v>45.94060241807557</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L14" t="n">
-        <v>26.70784276721304</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M14" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>10.94434319550814</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P14" t="n">
-        <v>37.65595906245261</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q14" t="n">
-        <v>67.81377078227503</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R14" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2096977421496</v>
       </c>
       <c r="S14" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5424357028624</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U14" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V14" t="n">
         <v>333.6094813630181</v>
@@ -23586,19 +23588,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>126.8822821399033</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I15" t="n">
-        <v>61.61797422893559</v>
+        <v>61.22704274417205</v>
       </c>
       <c r="J15" t="n">
-        <v>50.24867586497896</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K15" t="n">
-        <v>21.74077328296876</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>42.38790508806972</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R15" t="n">
-        <v>83.66173187770315</v>
+        <v>82.9567604002111</v>
       </c>
       <c r="S15" t="n">
-        <v>140.8895598152587</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T15" t="n">
-        <v>184.5453612288137</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U15" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -23665,49 +23667,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H16" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I16" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J16" t="n">
-        <v>70.05443052261322</v>
+        <v>69.38142423537789</v>
       </c>
       <c r="K16" t="n">
-        <v>50.38157427046082</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L16" t="n">
-        <v>39.92716966793144</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M16" t="n">
-        <v>39.423506304455</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N16" t="n">
-        <v>32.0373763711288</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O16" t="n">
-        <v>46.26279818095588</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P16" t="n">
-        <v>55.23011048084078</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.85974807944615</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R16" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S16" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T16" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U16" t="n">
-        <v>284.2927776331653</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23744,49 +23746,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H17" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I17" t="n">
-        <v>130.8154595068359</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J17" t="n">
-        <v>58.43709896927</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K17" t="n">
-        <v>45.94060241807557</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L17" t="n">
-        <v>26.70784276721304</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M17" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>10.94434319550814</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P17" t="n">
-        <v>37.65595906245261</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q17" t="n">
-        <v>67.81377078227503</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R17" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2096977421496</v>
       </c>
       <c r="S17" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T17" t="n">
-        <v>217.5424357028624</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U17" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -23823,19 +23825,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>126.8822821399033</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H18" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I18" t="n">
-        <v>61.61797422893559</v>
+        <v>61.22704274417205</v>
       </c>
       <c r="J18" t="n">
-        <v>50.24867586497896</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K18" t="n">
-        <v>21.74077328296876</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>42.38790508806972</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R18" t="n">
-        <v>83.66173187770315</v>
+        <v>82.9567604002111</v>
       </c>
       <c r="S18" t="n">
-        <v>140.8895598152587</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T18" t="n">
-        <v>184.5453612288137</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -23902,49 +23904,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H19" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I19" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J19" t="n">
-        <v>70.05443052261322</v>
+        <v>69.38142423537789</v>
       </c>
       <c r="K19" t="n">
-        <v>50.38157427046082</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L19" t="n">
-        <v>39.92716966793144</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M19" t="n">
-        <v>39.423506304455</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N19" t="n">
-        <v>32.0373763711288</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O19" t="n">
-        <v>46.26279818095588</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P19" t="n">
-        <v>55.23011048084078</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.85974807944615</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R19" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S19" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T19" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U19" t="n">
-        <v>284.2927776331653</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23981,49 +23983,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H20" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I20" t="n">
-        <v>130.8154595068359</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J20" t="n">
-        <v>58.43709896927</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K20" t="n">
-        <v>45.94060241807557</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L20" t="n">
-        <v>26.70784276721304</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M20" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>10.94434319550814</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P20" t="n">
-        <v>37.65595906245261</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.81377078227503</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R20" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2096977421496</v>
       </c>
       <c r="S20" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T20" t="n">
-        <v>217.5424357028624</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U20" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
@@ -24060,19 +24062,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>126.8822821399033</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H21" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I21" t="n">
-        <v>61.61797422893559</v>
+        <v>61.22704274417205</v>
       </c>
       <c r="J21" t="n">
-        <v>50.24867586497896</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K21" t="n">
-        <v>21.74077328296876</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>42.38790508806972</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R21" t="n">
-        <v>83.66173187770315</v>
+        <v>82.9567604002111</v>
       </c>
       <c r="S21" t="n">
-        <v>140.8895598152587</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T21" t="n">
-        <v>184.5453612288137</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -24139,49 +24141,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H22" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I22" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J22" t="n">
-        <v>70.05443052261322</v>
+        <v>69.38142423537789</v>
       </c>
       <c r="K22" t="n">
-        <v>50.38157427046082</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L22" t="n">
-        <v>39.92716966793144</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M22" t="n">
-        <v>39.423506304455</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N22" t="n">
-        <v>32.0373763711288</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O22" t="n">
-        <v>46.26279818095588</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P22" t="n">
-        <v>55.23011048084078</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.85974807944615</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R22" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S22" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T22" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2927776331653</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
@@ -24218,49 +24220,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H23" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I23" t="n">
-        <v>130.8154595068359</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J23" t="n">
-        <v>58.43709896927</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K23" t="n">
-        <v>45.94060241807557</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L23" t="n">
-        <v>26.70784276721304</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M23" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>10.94434319550814</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P23" t="n">
-        <v>37.65595906245261</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.81377078227503</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R23" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2096977421496</v>
       </c>
       <c r="S23" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5424357028624</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U23" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -24297,19 +24299,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>126.8822821399033</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H24" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I24" t="n">
-        <v>61.61797422893559</v>
+        <v>61.22704274417205</v>
       </c>
       <c r="J24" t="n">
-        <v>50.24867586497896</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K24" t="n">
-        <v>21.74077328296876</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>42.38790508806972</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R24" t="n">
-        <v>83.66173187770315</v>
+        <v>82.9567604002111</v>
       </c>
       <c r="S24" t="n">
-        <v>140.8895598152587</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T24" t="n">
-        <v>184.5453612288137</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -24376,49 +24378,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H25" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I25" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J25" t="n">
-        <v>70.05443052261322</v>
+        <v>69.38142423537789</v>
       </c>
       <c r="K25" t="n">
-        <v>50.38157427046082</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L25" t="n">
-        <v>39.92716966793144</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M25" t="n">
-        <v>39.423506304455</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N25" t="n">
-        <v>32.0373763711288</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O25" t="n">
-        <v>46.26279818095588</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P25" t="n">
-        <v>55.23011048084078</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.85974807944615</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R25" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S25" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T25" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2927776331653</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
@@ -24455,49 +24457,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H26" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I26" t="n">
-        <v>130.8154595068359</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J26" t="n">
-        <v>58.43709896927</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K26" t="n">
-        <v>45.94060241807557</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L26" t="n">
-        <v>26.70784276721304</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M26" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>10.94434319550814</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P26" t="n">
-        <v>37.65595906245261</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q26" t="n">
-        <v>67.81377078227503</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R26" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2096977421496</v>
       </c>
       <c r="S26" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T26" t="n">
-        <v>217.5424357028624</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U26" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -24534,19 +24536,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>126.8822821399033</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H27" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I27" t="n">
-        <v>61.61797422893559</v>
+        <v>61.22704274417205</v>
       </c>
       <c r="J27" t="n">
-        <v>50.24867586497896</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K27" t="n">
-        <v>21.74077328296876</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>42.38790508806972</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R27" t="n">
-        <v>83.66173187770315</v>
+        <v>82.9567604002111</v>
       </c>
       <c r="S27" t="n">
-        <v>140.8895598152587</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T27" t="n">
-        <v>184.5453612288137</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U27" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -24613,49 +24615,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H28" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I28" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J28" t="n">
-        <v>70.05443052261322</v>
+        <v>69.38142423537789</v>
       </c>
       <c r="K28" t="n">
-        <v>50.38157427046082</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L28" t="n">
-        <v>39.92716966793144</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M28" t="n">
-        <v>39.423506304455</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N28" t="n">
-        <v>32.0373763711288</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O28" t="n">
-        <v>46.26279818095588</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P28" t="n">
-        <v>55.23011048084078</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.85974807944615</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R28" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S28" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T28" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2927776331653</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -24692,49 +24694,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H29" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I29" t="n">
-        <v>130.8154595068359</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J29" t="n">
-        <v>58.43709896927</v>
+        <v>56.63596026319202</v>
       </c>
       <c r="K29" t="n">
-        <v>45.94060241807557</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L29" t="n">
-        <v>26.70784276721304</v>
+        <v>23.35894871741081</v>
       </c>
       <c r="M29" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>10.94434319550814</v>
+        <v>7.368778204404322</v>
       </c>
       <c r="P29" t="n">
-        <v>37.65595906245261</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q29" t="n">
-        <v>67.81377078227503</v>
+        <v>65.52209971264539</v>
       </c>
       <c r="R29" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2096977421496</v>
       </c>
       <c r="S29" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5424357028624</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U29" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -24771,19 +24773,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>126.8822821399033</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H30" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I30" t="n">
-        <v>61.61797422893559</v>
+        <v>61.22704274417205</v>
       </c>
       <c r="J30" t="n">
-        <v>50.24867586497896</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K30" t="n">
-        <v>21.74077328296876</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>42.38790508806972</v>
+        <v>40.93852038328524</v>
       </c>
       <c r="R30" t="n">
-        <v>83.66173187770315</v>
+        <v>82.95676040021108</v>
       </c>
       <c r="S30" t="n">
-        <v>140.8895598152587</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T30" t="n">
-        <v>184.5453612288137</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U30" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -24850,49 +24852,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H31" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I31" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J31" t="n">
-        <v>70.05443052261322</v>
+        <v>69.38142423537789</v>
       </c>
       <c r="K31" t="n">
-        <v>50.38157427046082</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L31" t="n">
-        <v>39.92716966793144</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M31" t="n">
-        <v>39.423506304455</v>
+        <v>37.93133099124952</v>
       </c>
       <c r="N31" t="n">
-        <v>32.0373763711288</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O31" t="n">
-        <v>46.26279818095588</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P31" t="n">
-        <v>55.23011048084078</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.85974807944615</v>
+        <v>83.06264625204166</v>
       </c>
       <c r="R31" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S31" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T31" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2927776331653</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24929,49 +24931,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H32" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I32" t="n">
-        <v>130.8154595068359</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J32" t="n">
-        <v>58.43709896927</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K32" t="n">
-        <v>45.94060241807557</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L32" t="n">
-        <v>26.70784276721304</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M32" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>10.94434319550814</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P32" t="n">
-        <v>37.65595906245261</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q32" t="n">
-        <v>67.81377078227503</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2096977421496</v>
       </c>
       <c r="S32" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T32" t="n">
-        <v>217.5424357028624</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U32" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -25008,19 +25010,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>126.8822821399033</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H33" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I33" t="n">
-        <v>61.61797422893559</v>
+        <v>61.22704274417205</v>
       </c>
       <c r="J33" t="n">
-        <v>50.24867586497896</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K33" t="n">
-        <v>21.74077328296876</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>42.38790508806972</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R33" t="n">
-        <v>83.66173187770315</v>
+        <v>82.9567604002111</v>
       </c>
       <c r="S33" t="n">
-        <v>140.8895598152587</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T33" t="n">
-        <v>184.5453612288137</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U33" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
@@ -25087,49 +25089,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H34" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I34" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J34" t="n">
-        <v>70.05443052261322</v>
+        <v>69.38142423537789</v>
       </c>
       <c r="K34" t="n">
-        <v>50.38157427046082</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L34" t="n">
-        <v>39.92716966793144</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M34" t="n">
-        <v>39.423506304455</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N34" t="n">
-        <v>32.0373763711288</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O34" t="n">
-        <v>46.26279818095588</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P34" t="n">
-        <v>55.23011048084078</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.85974807944615</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R34" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S34" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T34" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2927776331653</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25166,49 +25168,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H35" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I35" t="n">
-        <v>130.8154595068359</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J35" t="n">
-        <v>58.43709896927</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K35" t="n">
-        <v>45.94060241807557</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L35" t="n">
-        <v>26.70784276721304</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M35" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>10.94434319550814</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P35" t="n">
-        <v>37.65595906245261</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q35" t="n">
-        <v>67.81377078227503</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R35" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2096977421496</v>
       </c>
       <c r="S35" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T35" t="n">
-        <v>217.5424357028624</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U35" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -25245,19 +25247,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>126.8822821399033</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H36" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I36" t="n">
-        <v>61.61797422893559</v>
+        <v>61.22704274417205</v>
       </c>
       <c r="J36" t="n">
-        <v>50.24867586497896</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K36" t="n">
-        <v>21.74077328296876</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>42.38790508806972</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R36" t="n">
-        <v>83.66173187770315</v>
+        <v>82.9567604002111</v>
       </c>
       <c r="S36" t="n">
-        <v>140.8895598152587</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T36" t="n">
-        <v>184.5453612288137</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U36" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -25324,49 +25326,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H37" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I37" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J37" t="n">
-        <v>70.05443052261322</v>
+        <v>69.38142423537789</v>
       </c>
       <c r="K37" t="n">
-        <v>50.38157427046082</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L37" t="n">
-        <v>39.92716966793144</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M37" t="n">
-        <v>39.423506304455</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N37" t="n">
-        <v>32.0373763711288</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O37" t="n">
-        <v>46.26279818095588</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P37" t="n">
-        <v>55.23011048084078</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.85974807944615</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R37" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S37" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T37" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2927776331653</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25403,49 +25405,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H38" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I38" t="n">
-        <v>130.8154595068359</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J38" t="n">
-        <v>58.43709896927</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K38" t="n">
-        <v>45.94060241807557</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L38" t="n">
-        <v>26.70784276721304</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M38" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>10.94434319550814</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P38" t="n">
-        <v>37.65595906245261</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q38" t="n">
-        <v>67.81377078227503</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R38" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2096977421496</v>
       </c>
       <c r="S38" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T38" t="n">
-        <v>217.5424357028624</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U38" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
@@ -25482,19 +25484,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>126.8822821399033</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H39" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I39" t="n">
-        <v>61.61797422893559</v>
+        <v>61.22704274417205</v>
       </c>
       <c r="J39" t="n">
-        <v>50.24867586497896</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K39" t="n">
-        <v>21.74077328296876</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.38790508806972</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R39" t="n">
-        <v>83.66173187770315</v>
+        <v>82.9567604002111</v>
       </c>
       <c r="S39" t="n">
-        <v>140.8895598152587</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T39" t="n">
-        <v>184.5453612288137</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U39" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -25561,49 +25563,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H40" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I40" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J40" t="n">
-        <v>70.05443052261322</v>
+        <v>69.38142423537789</v>
       </c>
       <c r="K40" t="n">
-        <v>50.38157427046082</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L40" t="n">
-        <v>39.92716966793144</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M40" t="n">
-        <v>39.423506304455</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N40" t="n">
-        <v>32.0373763711288</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O40" t="n">
-        <v>46.26279818095588</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P40" t="n">
-        <v>55.23011048084078</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.85974807944615</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R40" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S40" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T40" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2927776331653</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25640,49 +25642,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8770831222486</v>
       </c>
       <c r="H41" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5772864942178</v>
       </c>
       <c r="I41" t="n">
-        <v>130.8154595068359</v>
+        <v>129.9973219794369</v>
       </c>
       <c r="J41" t="n">
-        <v>58.43709896927</v>
+        <v>56.63596026319203</v>
       </c>
       <c r="K41" t="n">
-        <v>45.94060241807557</v>
+        <v>43.24116239470834</v>
       </c>
       <c r="L41" t="n">
-        <v>26.70784276721304</v>
+        <v>23.35894871741084</v>
       </c>
       <c r="M41" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>10.94434319550814</v>
+        <v>7.36877820440435</v>
       </c>
       <c r="P41" t="n">
-        <v>37.65595906245261</v>
+        <v>34.60429706616523</v>
       </c>
       <c r="Q41" t="n">
-        <v>67.81377078227503</v>
+        <v>65.5220997126454</v>
       </c>
       <c r="R41" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2096977421496</v>
       </c>
       <c r="S41" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0683197856248</v>
       </c>
       <c r="T41" t="n">
-        <v>217.5424357028624</v>
+        <v>217.4495390806929</v>
       </c>
       <c r="U41" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512138384975</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
@@ -25719,19 +25721,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>126.8822821399033</v>
+        <v>126.870927696779</v>
       </c>
       <c r="H42" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43070435713413</v>
       </c>
       <c r="I42" t="n">
-        <v>61.61797422893559</v>
+        <v>61.22704274417205</v>
       </c>
       <c r="J42" t="n">
-        <v>50.24867586497896</v>
+        <v>49.17592999067433</v>
       </c>
       <c r="K42" t="n">
-        <v>21.74077328296876</v>
+        <v>19.90727971933319</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>42.38790508806972</v>
+        <v>40.93852038328525</v>
       </c>
       <c r="R42" t="n">
-        <v>83.66173187770315</v>
+        <v>82.9567604002111</v>
       </c>
       <c r="S42" t="n">
-        <v>140.8895598152587</v>
+        <v>140.678656014243</v>
       </c>
       <c r="T42" t="n">
-        <v>184.5453612288137</v>
+        <v>184.4995948549924</v>
       </c>
       <c r="U42" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723255776618</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -25798,49 +25800,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7524414473259</v>
       </c>
       <c r="H43" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5280889036506</v>
       </c>
       <c r="I43" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3829513838347</v>
       </c>
       <c r="J43" t="n">
-        <v>70.05443052261322</v>
+        <v>69.38142423537789</v>
       </c>
       <c r="K43" t="n">
-        <v>50.38157427046082</v>
+        <v>49.27561820117091</v>
       </c>
       <c r="L43" t="n">
-        <v>39.92716966793144</v>
+        <v>38.51192666658817</v>
       </c>
       <c r="M43" t="n">
-        <v>39.423506304455</v>
+        <v>37.93133099124954</v>
       </c>
       <c r="N43" t="n">
-        <v>32.0373763711288</v>
+        <v>30.58068165169554</v>
       </c>
       <c r="O43" t="n">
-        <v>46.26279818095588</v>
+        <v>44.91730483468676</v>
       </c>
       <c r="P43" t="n">
-        <v>55.23011048084078</v>
+        <v>54.07880848194932</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.85974807944615</v>
+        <v>83.06264625204167</v>
       </c>
       <c r="R43" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5290129463684</v>
       </c>
       <c r="S43" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2405168609909</v>
       </c>
       <c r="T43" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8043313043306</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2927776331653</v>
+        <v>284.2922584049637</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
@@ -25877,49 +25879,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8333485808955</v>
       </c>
       <c r="H44" t="n">
-        <v>318.7946200251814</v>
+        <v>318.1293901225855</v>
       </c>
       <c r="I44" t="n">
-        <v>130.8154595068359</v>
+        <v>128.3112460739222</v>
       </c>
       <c r="J44" t="n">
-        <v>58.43709896927</v>
+        <v>52.92404573402577</v>
       </c>
       <c r="K44" t="n">
-        <v>45.94060241807557</v>
+        <v>37.67796473006604</v>
       </c>
       <c r="L44" t="n">
-        <v>26.70784276721304</v>
+        <v>16.45731008283411</v>
       </c>
       <c r="M44" t="n">
-        <v>3.726289893207451</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>10.94434319550814</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>37.65595906245261</v>
+        <v>28.31521535141513</v>
       </c>
       <c r="Q44" t="n">
-        <v>67.81377078227503</v>
+        <v>60.7992612601026</v>
       </c>
       <c r="R44" t="n">
-        <v>109.5427457015678</v>
+        <v>105.462457858879</v>
       </c>
       <c r="S44" t="n">
-        <v>161.5519021448908</v>
+        <v>160.0717189245414</v>
       </c>
       <c r="T44" t="n">
-        <v>217.5424357028624</v>
+        <v>217.2580911259198</v>
       </c>
       <c r="U44" t="n">
-        <v>252.252911549468</v>
+        <v>252.2477150751892</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25956,19 +25958,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>126.8822821399033</v>
+        <v>126.847527654205</v>
       </c>
       <c r="H45" t="n">
-        <v>93.5403643736245</v>
+        <v>93.20470920911717</v>
       </c>
       <c r="I45" t="n">
-        <v>61.61797422893559</v>
+        <v>60.42138338362111</v>
       </c>
       <c r="J45" t="n">
-        <v>50.24867586497896</v>
+        <v>46.96513912626315</v>
       </c>
       <c r="K45" t="n">
-        <v>21.74077328296876</v>
+        <v>16.12868600246645</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>42.38790508806972</v>
+        <v>37.95152547507195</v>
       </c>
       <c r="R45" t="n">
-        <v>83.66173187770315</v>
+        <v>81.50390512531185</v>
       </c>
       <c r="S45" t="n">
-        <v>140.8895598152587</v>
+        <v>140.2440104866082</v>
       </c>
       <c r="T45" t="n">
-        <v>184.5453612288137</v>
+        <v>184.4052762623368</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2707861011767</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26035,49 +26037,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7328236376903</v>
       </c>
       <c r="H46" t="n">
-        <v>153.6127231005024</v>
+        <v>153.3536687416174</v>
       </c>
       <c r="I46" t="n">
-        <v>128.6692191989529</v>
+        <v>127.792990344974</v>
       </c>
       <c r="J46" t="n">
-        <v>70.05443052261322</v>
+        <v>67.99444509413848</v>
       </c>
       <c r="K46" t="n">
-        <v>50.38157427046082</v>
+        <v>46.99638540895803</v>
       </c>
       <c r="L46" t="n">
-        <v>39.92716966793144</v>
+        <v>35.5952934049411</v>
       </c>
       <c r="M46" t="n">
-        <v>39.423506304455</v>
+        <v>34.85615015900174</v>
       </c>
       <c r="N46" t="n">
-        <v>32.0373763711288</v>
+        <v>27.57862174627148</v>
       </c>
       <c r="O46" t="n">
-        <v>46.26279818095588</v>
+        <v>42.1444166145517</v>
       </c>
       <c r="P46" t="n">
-        <v>55.23011048084078</v>
+        <v>51.70612357838122</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.85974807944615</v>
+        <v>81.41992221064316</v>
       </c>
       <c r="R46" t="n">
-        <v>126.9570300605083</v>
+        <v>125.6469248876606</v>
       </c>
       <c r="S46" t="n">
-        <v>203.4064102713844</v>
+        <v>202.898631942159</v>
       </c>
       <c r="T46" t="n">
-        <v>228.8450041801183</v>
+        <v>228.7205097540693</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2927776331653</v>
+        <v>284.2911883426199</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>190222.9972071949</v>
+        <v>171912.6339922835</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>202284.9422022667</v>
+        <v>190222.9972071949</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>214010.0205299052</v>
+        <v>190222.9972071949</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>228509.8389429878</v>
+        <v>232131.9483960994</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>228509.8389429878</v>
+        <v>232131.9483960994</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>228509.8389429878</v>
+        <v>232131.9483960994</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>228509.8389429878</v>
+        <v>232131.9483960994</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>228509.8389429878</v>
+        <v>232131.9483960994</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>228509.8389429878</v>
+        <v>232131.9483960994</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>228509.8389429878</v>
+        <v>232131.9483960994</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>228509.8389429878</v>
+        <v>232131.9483960994</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>228509.8389429878</v>
+        <v>232131.9483960994</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>228509.8389429878</v>
+        <v>232131.9483960994</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>228509.8389429878</v>
+        <v>232131.9483960994</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>228509.8389429878</v>
+        <v>238421.4413820701</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>32051.50803245966</v>
+      </c>
+      <c r="C2" t="n">
         <v>35465.30456405331</v>
       </c>
-      <c r="C2" t="n">
-        <v>37714.14176652432</v>
-      </c>
       <c r="D2" t="n">
-        <v>39900.17331913488</v>
+        <v>35465.30456405331</v>
       </c>
       <c r="E2" t="n">
-        <v>42603.52929445537</v>
+        <v>43278.83783656092</v>
       </c>
       <c r="F2" t="n">
-        <v>42603.52929445537</v>
+        <v>43278.83783656094</v>
       </c>
       <c r="G2" t="n">
-        <v>42603.52929445537</v>
+        <v>43278.83783656094</v>
       </c>
       <c r="H2" t="n">
-        <v>42603.52929445537</v>
+        <v>43278.83783656094</v>
       </c>
       <c r="I2" t="n">
-        <v>42603.52929445537</v>
+        <v>43278.83783656094</v>
       </c>
       <c r="J2" t="n">
-        <v>42603.52929445537</v>
+        <v>43278.83783656095</v>
       </c>
       <c r="K2" t="n">
-        <v>42603.52929445537</v>
+        <v>43278.83783656092</v>
       </c>
       <c r="L2" t="n">
-        <v>42603.52929445537</v>
+        <v>43278.83783656094</v>
       </c>
       <c r="M2" t="n">
-        <v>42603.52929445537</v>
+        <v>43278.83783656094</v>
       </c>
       <c r="N2" t="n">
-        <v>42603.52929445537</v>
+        <v>43278.83783656092</v>
       </c>
       <c r="O2" t="n">
-        <v>42603.52929445538</v>
+        <v>43278.83783656092</v>
       </c>
       <c r="P2" t="n">
-        <v>42603.52929445537</v>
+        <v>44451.45517292834</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204186.7702736322</v>
+        <v>183817.6412139467</v>
       </c>
       <c r="C3" t="n">
-        <v>13199.36047139268</v>
+        <v>19248.56727753535</v>
       </c>
       <c r="D3" t="n">
-        <v>12549.89572580629</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>15110.77536932997</v>
+        <v>42770.35670601614</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>7240.779447535443</v>
       </c>
     </row>
     <row r="4">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>37786.14142530667</v>
+      </c>
+      <c r="C5" t="n">
         <v>38246.95610246559</v>
       </c>
-      <c r="C5" t="n">
-        <v>38562.95151898825</v>
-      </c>
       <c r="D5" t="n">
-        <v>38882.40884549456</v>
+        <v>38246.95610246559</v>
       </c>
       <c r="E5" t="n">
-        <v>5664.83333264658</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="F5" t="n">
-        <v>5664.83333264658</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="G5" t="n">
-        <v>5664.83333264658</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="H5" t="n">
-        <v>5664.83333264658</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="I5" t="n">
-        <v>5664.83333264658</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="J5" t="n">
-        <v>5664.83333264658</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="K5" t="n">
-        <v>5664.83333264658</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="L5" t="n">
-        <v>5664.83333264658</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="M5" t="n">
-        <v>5664.83333264658</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="N5" t="n">
-        <v>5664.83333264658</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="O5" t="n">
-        <v>5664.83333264658</v>
+        <v>5779.911609715572</v>
       </c>
       <c r="P5" t="n">
-        <v>5664.83333264658</v>
+        <v>6017.073093838006</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-206968.4218120445</v>
+        <v>-189552.2746067938</v>
       </c>
       <c r="C6" t="n">
-        <v>-14048.17022385661</v>
+        <v>-22030.21881594763</v>
       </c>
       <c r="D6" t="n">
-        <v>-11532.13125216597</v>
+        <v>-2781.651538412283</v>
       </c>
       <c r="E6" t="n">
-        <v>21827.92059247882</v>
+        <v>-5271.430479170791</v>
       </c>
       <c r="F6" t="n">
-        <v>36938.69596180879</v>
+        <v>37498.92622684537</v>
       </c>
       <c r="G6" t="n">
-        <v>36938.69596180879</v>
+        <v>37498.92622684537</v>
       </c>
       <c r="H6" t="n">
-        <v>36938.69596180879</v>
+        <v>37498.92622684537</v>
       </c>
       <c r="I6" t="n">
-        <v>36938.69596180879</v>
+        <v>37498.92622684537</v>
       </c>
       <c r="J6" t="n">
-        <v>36938.69596180879</v>
+        <v>37498.92622684537</v>
       </c>
       <c r="K6" t="n">
-        <v>36938.69596180879</v>
+        <v>37498.92622684535</v>
       </c>
       <c r="L6" t="n">
-        <v>36938.69596180879</v>
+        <v>37498.92622684537</v>
       </c>
       <c r="M6" t="n">
-        <v>36938.69596180879</v>
+        <v>37498.92622684537</v>
       </c>
       <c r="N6" t="n">
-        <v>36938.69596180879</v>
+        <v>37498.92622684535</v>
       </c>
       <c r="O6" t="n">
-        <v>36938.6959618088</v>
+        <v>37498.92622684535</v>
       </c>
       <c r="P6" t="n">
-        <v>36938.69596180879</v>
+        <v>31193.60263155489</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>190.7587809773703</v>
+      </c>
+      <c r="C3" t="n">
         <v>211.8970689204402</v>
       </c>
-      <c r="C3" t="n">
-        <v>226.3922715132224</v>
-      </c>
       <c r="D3" t="n">
-        <v>241.0462773162643</v>
+        <v>211.8970689204402</v>
       </c>
       <c r="E3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.133560078696</v>
       </c>
       <c r="F3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.133560078696</v>
       </c>
       <c r="G3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.133560078696</v>
       </c>
       <c r="H3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.133560078696</v>
       </c>
       <c r="I3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.133560078696</v>
       </c>
       <c r="J3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.133560078696</v>
       </c>
       <c r="K3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.133560078696</v>
       </c>
       <c r="L3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.133560078696</v>
       </c>
       <c r="M3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.133560078696</v>
       </c>
       <c r="N3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.133560078696</v>
       </c>
       <c r="O3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.133560078696</v>
       </c>
       <c r="P3" t="n">
-        <v>259.8547400296596</v>
+        <v>276.0125272402755</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>211.8970689204402</v>
+        <v>190.7587809773703</v>
       </c>
       <c r="C3" t="n">
-        <v>14.49520259278222</v>
+        <v>21.13828794306991</v>
       </c>
       <c r="D3" t="n">
-        <v>14.65400580304185</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>18.80846271339536</v>
+        <v>53.23649115825575</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>10.87896716157951</v>
       </c>
     </row>
     <row r="4">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8518475132480001</v>
+        <v>0.7668694712658096</v>
       </c>
       <c r="H2" t="n">
-        <v>8.723983345051083</v>
+        <v>7.853701972600975</v>
       </c>
       <c r="I2" t="n">
-        <v>32.84085125449356</v>
+        <v>29.56473529097515</v>
       </c>
       <c r="J2" t="n">
-        <v>72.29949287753251</v>
+        <v>65.08708778684657</v>
       </c>
       <c r="K2" t="n">
-        <v>108.3581981133204</v>
+        <v>97.54867250552832</v>
       </c>
       <c r="L2" t="n">
-        <v>134.4279264468839</v>
+        <v>121.0177540867794</v>
       </c>
       <c r="M2" t="n">
-        <v>149.576969660608</v>
+        <v>134.6555690464027</v>
       </c>
       <c r="N2" t="n">
-        <v>151.9972814076239</v>
+        <v>136.8344369316367</v>
       </c>
       <c r="O2" t="n">
-        <v>143.5267226977641</v>
+        <v>129.2088786267373</v>
       </c>
       <c r="P2" t="n">
-        <v>122.4967372144541</v>
+        <v>110.2767885548626</v>
       </c>
       <c r="Q2" t="n">
-        <v>91.98994814626005</v>
+        <v>82.81327561515576</v>
       </c>
       <c r="R2" t="n">
-        <v>53.50986635406474</v>
+        <v>48.17186442440096</v>
       </c>
       <c r="S2" t="n">
-        <v>19.41147520813882</v>
+        <v>17.47503807646966</v>
       </c>
       <c r="T2" t="n">
-        <v>3.728962489243123</v>
+        <v>3.356971110466083</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06814780105984</v>
+        <v>0.06134955770126475</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.4103113402154758</v>
       </c>
       <c r="H3" t="n">
-        <v>4.401861752479334</v>
+        <v>3.962743733133674</v>
       </c>
       <c r="I3" t="n">
-        <v>15.69237727382506</v>
+        <v>14.12694745917318</v>
       </c>
       <c r="J3" t="n">
-        <v>43.0610826567472</v>
+        <v>38.76542359465599</v>
       </c>
       <c r="K3" t="n">
-        <v>73.59824892871555</v>
+        <v>66.25628338909286</v>
       </c>
       <c r="L3" t="n">
-        <v>98.96192827270183</v>
+        <v>89.08974954985582</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>103.9635356326668</v>
       </c>
       <c r="N3" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>108.4413235634634</v>
+        <v>97.62350558188119</v>
       </c>
       <c r="P3" t="n">
-        <v>87.03372251564271</v>
+        <v>78.35146986974291</v>
       </c>
       <c r="Q3" t="n">
-        <v>58.1797386213254</v>
+        <v>52.37588265627722</v>
       </c>
       <c r="R3" t="n">
-        <v>28.29825384563918</v>
+        <v>25.47529531618542</v>
       </c>
       <c r="S3" t="n">
-        <v>8.465887612057205</v>
+        <v>7.621353183388328</v>
       </c>
       <c r="T3" t="n">
-        <v>1.837107606961174</v>
+        <v>1.653842638850974</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.0269941671194392</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.3439912443854218</v>
       </c>
       <c r="H4" t="n">
-        <v>3.397300547609683</v>
+        <v>3.05839488189948</v>
       </c>
       <c r="I4" t="n">
-        <v>11.49107383588223</v>
+        <v>10.34475487660887</v>
       </c>
       <c r="J4" t="n">
-        <v>27.01513942613546</v>
+        <v>24.32018097804932</v>
       </c>
       <c r="K4" t="n">
-        <v>44.39417280005287</v>
+        <v>39.96552821132445</v>
       </c>
       <c r="L4" t="n">
-        <v>56.80925680532589</v>
+        <v>51.1421164607199</v>
       </c>
       <c r="M4" t="n">
-        <v>59.89739605565819</v>
+        <v>53.92219115398024</v>
       </c>
       <c r="N4" t="n">
-        <v>58.47316985471758</v>
+        <v>52.6400419703619</v>
       </c>
       <c r="O4" t="n">
-        <v>54.00943651762304</v>
+        <v>48.621598797314</v>
       </c>
       <c r="P4" t="n">
-        <v>46.21440335930385</v>
+        <v>41.60417741185136</v>
       </c>
       <c r="Q4" t="n">
-        <v>31.99645740698647</v>
+        <v>28.80457592758292</v>
       </c>
       <c r="R4" t="n">
-        <v>17.18103119476224</v>
+        <v>15.46709722482087</v>
       </c>
       <c r="S4" t="n">
-        <v>6.659125920007929</v>
+        <v>5.994829231698668</v>
       </c>
       <c r="T4" t="n">
-        <v>1.632649547419785</v>
+        <v>1.469780771464984</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.01876315878465939</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9101196844752654</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H5" t="n">
-        <v>9.320763218632313</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I5" t="n">
-        <v>35.0873891357327</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J5" t="n">
-        <v>77.24527057023262</v>
+        <v>72.29949287753253</v>
       </c>
       <c r="K5" t="n">
-        <v>115.7706368140706</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L5" t="n">
-        <v>143.6237121078306</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M5" t="n">
-        <v>159.8090530466175</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N5" t="n">
-        <v>162.3949306001329</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O5" t="n">
-        <v>153.344927987632</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P5" t="n">
-        <v>130.8763482771488</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q5" t="n">
-        <v>98.28268707687837</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R5" t="n">
-        <v>57.17030562991944</v>
+        <v>53.50986635406473</v>
       </c>
       <c r="S5" t="n">
-        <v>20.73935230998013</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T5" t="n">
-        <v>3.984048918790476</v>
+        <v>3.728962489243122</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07280957475802122</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4869569613680633</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H6" t="n">
-        <v>4.702979074265244</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I6" t="n">
-        <v>16.76584274885657</v>
+        <v>15.69237727382505</v>
       </c>
       <c r="J6" t="n">
-        <v>46.00675396855024</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K6" t="n">
-        <v>78.63287038021048</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L6" t="n">
-        <v>105.7315981251139</v>
+        <v>98.96192827270181</v>
       </c>
       <c r="M6" t="n">
         <v>115.4839025616399</v>
@@ -31379,25 +31381,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P6" t="n">
-        <v>92.9874218598366</v>
+        <v>87.03372251564269</v>
       </c>
       <c r="Q6" t="n">
-        <v>62.15962896340402</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R6" t="n">
-        <v>30.23404712774696</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S6" t="n">
-        <v>9.045011979797135</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T6" t="n">
-        <v>1.962778278496711</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03203664219526734</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4082483584664666</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H7" t="n">
-        <v>3.629699041638224</v>
+        <v>3.397300547609682</v>
       </c>
       <c r="I7" t="n">
-        <v>12.27714154370065</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J7" t="n">
-        <v>28.86315894357919</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K7" t="n">
-        <v>47.43103655637675</v>
+        <v>44.39417280005286</v>
       </c>
       <c r="L7" t="n">
-        <v>60.6953968578236</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M7" t="n">
-        <v>63.9947858639753</v>
+        <v>59.89739605565818</v>
       </c>
       <c r="N7" t="n">
-        <v>62.47313289150943</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O7" t="n">
-        <v>57.70404979487842</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P7" t="n">
-        <v>49.37578328216245</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q7" t="n">
-        <v>34.18523299849659</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R7" t="n">
-        <v>18.35633073613767</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S7" t="n">
-        <v>7.114655483456511</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T7" t="n">
-        <v>1.744333895265811</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02226809227998911</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9690302605678959</v>
+        <v>0.8518475132480001</v>
       </c>
       <c r="H8" t="n">
-        <v>9.924081156040966</v>
+        <v>8.723983345051083</v>
       </c>
       <c r="I8" t="n">
-        <v>37.35853912054384</v>
+        <v>32.84085125449356</v>
       </c>
       <c r="J8" t="n">
-        <v>82.24523207787453</v>
+        <v>72.29949287753251</v>
       </c>
       <c r="K8" t="n">
-        <v>123.2642830077136</v>
+        <v>108.3581981133204</v>
       </c>
       <c r="L8" t="n">
-        <v>152.9202428445683</v>
+        <v>134.4279264468839</v>
       </c>
       <c r="M8" t="n">
-        <v>170.1532347409427</v>
+        <v>149.576969660608</v>
       </c>
       <c r="N8" t="n">
-        <v>172.9064919687812</v>
+        <v>151.9972814076239</v>
       </c>
       <c r="O8" t="n">
-        <v>163.2706973152592</v>
+        <v>143.5267226977641</v>
       </c>
       <c r="P8" t="n">
-        <v>139.3477627574892</v>
+        <v>122.4967372144541</v>
       </c>
       <c r="Q8" t="n">
-        <v>104.6443665509014</v>
+        <v>91.98994814626005</v>
       </c>
       <c r="R8" t="n">
-        <v>60.87084710539814</v>
+        <v>53.50986635406474</v>
       </c>
       <c r="S8" t="n">
-        <v>22.08177706269095</v>
+        <v>19.41147520813882</v>
       </c>
       <c r="T8" t="n">
-        <v>4.241929965635967</v>
+        <v>3.728962489243123</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07752242084543165</v>
+        <v>0.06814780105984</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5184768983783798</v>
+        <v>0.4557786010741544</v>
       </c>
       <c r="H9" t="n">
-        <v>5.007395308022774</v>
+        <v>4.401861752479334</v>
       </c>
       <c r="I9" t="n">
-        <v>17.85106865030825</v>
+        <v>15.69237727382506</v>
       </c>
       <c r="J9" t="n">
-        <v>48.98469678933632</v>
+        <v>43.0610826567472</v>
       </c>
       <c r="K9" t="n">
-        <v>83.72264898068777</v>
+        <v>73.59824892871555</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>98.96192827270183</v>
       </c>
       <c r="M9" t="n">
         <v>115.4839025616399</v>
@@ -31616,25 +31618,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>108.4413235634634</v>
       </c>
       <c r="P9" t="n">
-        <v>99.00634737542939</v>
+        <v>87.03372251564271</v>
       </c>
       <c r="Q9" t="n">
-        <v>66.18312127370336</v>
+        <v>58.1797386213254</v>
       </c>
       <c r="R9" t="n">
-        <v>32.19104812914188</v>
+        <v>28.29825384563918</v>
       </c>
       <c r="S9" t="n">
-        <v>9.630480985229987</v>
+        <v>8.465887612057205</v>
       </c>
       <c r="T9" t="n">
-        <v>2.089825743902328</v>
+        <v>1.837107606961174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03411032226173553</v>
+        <v>0.02998543428119438</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4346736148326077</v>
+        <v>0.3821094685450561</v>
       </c>
       <c r="H10" t="n">
-        <v>3.864643593693551</v>
+        <v>3.397300547609683</v>
       </c>
       <c r="I10" t="n">
-        <v>13.07182107151151</v>
+        <v>11.49107383588223</v>
       </c>
       <c r="J10" t="n">
-        <v>30.73142456866536</v>
+        <v>27.01513942613546</v>
       </c>
       <c r="K10" t="n">
-        <v>50.50117088691568</v>
+        <v>44.39417280005287</v>
       </c>
       <c r="L10" t="n">
-        <v>64.62411179065879</v>
+        <v>56.80925680532589</v>
       </c>
       <c r="M10" t="n">
-        <v>68.13706491416957</v>
+        <v>59.89739605565819</v>
       </c>
       <c r="N10" t="n">
-        <v>66.516917804339</v>
+        <v>58.47316985471758</v>
       </c>
       <c r="O10" t="n">
-        <v>61.43913966743079</v>
+        <v>54.00943651762304</v>
       </c>
       <c r="P10" t="n">
-        <v>52.57179792484555</v>
+        <v>46.21440335930385</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.39798787475591</v>
+        <v>31.99645740698647</v>
       </c>
       <c r="R10" t="n">
-        <v>19.5445063542007</v>
+        <v>17.18103119476224</v>
       </c>
       <c r="S10" t="n">
-        <v>7.575175633037351</v>
+        <v>6.659125920007929</v>
       </c>
       <c r="T10" t="n">
-        <v>1.857241808830232</v>
+        <v>1.632649547419785</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02370946989996045</v>
+        <v>0.02084233464791217</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.044642170973505</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H11" t="n">
-        <v>10.69844163348241</v>
+        <v>10.91577516444601</v>
       </c>
       <c r="I11" t="n">
-        <v>40.2735672964561</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J11" t="n">
-        <v>88.66269845866263</v>
+        <v>90.46383716474061</v>
       </c>
       <c r="K11" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L11" t="n">
-        <v>164.8523693959016</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M11" t="n">
-        <v>183.4300246039516</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N11" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O11" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P11" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q11" t="n">
-        <v>112.8096022407152</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R11" t="n">
-        <v>65.62050377241451</v>
+        <v>66.95355173183272</v>
       </c>
       <c r="S11" t="n">
-        <v>23.80478347105878</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T11" t="n">
-        <v>4.572921103436522</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5702872801692707</v>
       </c>
       <c r="H12" t="n">
-        <v>5.39811450514444</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I12" t="n">
-        <v>19.24395952106442</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J12" t="n">
-        <v>52.80689580168773</v>
+        <v>53.87964167599237</v>
       </c>
       <c r="K12" t="n">
-        <v>90.25539588369791</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L12" t="n">
         <v>112.5754335711478</v>
@@ -31856,22 +31858,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P12" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.34728635682278</v>
+        <v>72.79667106160726</v>
       </c>
       <c r="R12" t="n">
-        <v>34.70286509301758</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S12" t="n">
-        <v>10.38193230212838</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T12" t="n">
-        <v>2.252891566860916</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4781096985025665</v>
       </c>
       <c r="H13" t="n">
-        <v>4.166195668016512</v>
+        <v>4.250829864868276</v>
       </c>
       <c r="I13" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J13" t="n">
-        <v>33.12934939689611</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K13" t="n">
-        <v>54.44169799309917</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L13" t="n">
-        <v>69.66662981057466</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M13" t="n">
-        <v>73.4536931529741</v>
+        <v>74.94586846617958</v>
       </c>
       <c r="N13" t="n">
-        <v>71.70712850687316</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O13" t="n">
-        <v>66.23313931116638</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P13" t="n">
-        <v>56.67389280909164</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2380657444786</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R13" t="n">
-        <v>21.06953351125731</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S13" t="n">
-        <v>8.166254698964874</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T13" t="n">
-        <v>2.002159472359672</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02607871082741275</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.044642170973505</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H14" t="n">
-        <v>10.69844163348241</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I14" t="n">
-        <v>40.2735672964561</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J14" t="n">
-        <v>88.66269845866263</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K14" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L14" t="n">
-        <v>164.8523693959016</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M14" t="n">
-        <v>183.4300246039516</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N14" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O14" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P14" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q14" t="n">
-        <v>112.8096022407152</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R14" t="n">
-        <v>65.62050377241451</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S14" t="n">
-        <v>23.80478347105878</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T14" t="n">
-        <v>4.572921103436522</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H15" t="n">
-        <v>5.39811450514444</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I15" t="n">
-        <v>19.24395952106442</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J15" t="n">
-        <v>52.80689580168773</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K15" t="n">
-        <v>90.25539588369791</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L15" t="n">
         <v>112.5754335711478</v>
@@ -32093,22 +32095,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P15" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.34728635682278</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R15" t="n">
-        <v>34.70286509301758</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S15" t="n">
-        <v>10.38193230212838</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T15" t="n">
-        <v>2.252891566860916</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H16" t="n">
-        <v>4.166195668016512</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I16" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J16" t="n">
-        <v>33.12934939689611</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K16" t="n">
-        <v>54.44169799309917</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L16" t="n">
-        <v>69.66662981057466</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M16" t="n">
-        <v>73.4536931529741</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N16" t="n">
-        <v>71.70712850687316</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O16" t="n">
-        <v>66.23313931116638</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P16" t="n">
-        <v>56.67389280909164</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2380657444786</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R16" t="n">
-        <v>21.06953351125731</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S16" t="n">
-        <v>8.166254698964874</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T16" t="n">
-        <v>2.002159472359672</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.044642170973505</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H17" t="n">
-        <v>10.69844163348241</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I17" t="n">
-        <v>40.2735672964561</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J17" t="n">
-        <v>88.66269845866263</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K17" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L17" t="n">
-        <v>164.8523693959016</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M17" t="n">
-        <v>183.4300246039516</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N17" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O17" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P17" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q17" t="n">
-        <v>112.8096022407152</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R17" t="n">
-        <v>65.62050377241451</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S17" t="n">
-        <v>23.80478347105878</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T17" t="n">
-        <v>4.572921103436522</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H18" t="n">
-        <v>5.39811450514444</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I18" t="n">
-        <v>19.24395952106442</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J18" t="n">
-        <v>52.80689580168773</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K18" t="n">
-        <v>90.25539588369791</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L18" t="n">
         <v>112.5754335711478</v>
@@ -32330,22 +32332,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P18" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.34728635682278</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R18" t="n">
-        <v>34.70286509301758</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S18" t="n">
-        <v>10.38193230212838</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T18" t="n">
-        <v>2.252891566860916</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H19" t="n">
-        <v>4.166195668016512</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I19" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J19" t="n">
-        <v>33.12934939689611</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K19" t="n">
-        <v>54.44169799309917</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L19" t="n">
-        <v>69.66662981057466</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M19" t="n">
-        <v>73.4536931529741</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N19" t="n">
-        <v>71.70712850687316</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O19" t="n">
-        <v>66.23313931116638</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P19" t="n">
-        <v>56.67389280909164</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2380657444786</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R19" t="n">
-        <v>21.06953351125731</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S19" t="n">
-        <v>8.166254698964874</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T19" t="n">
-        <v>2.002159472359672</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.044642170973505</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H20" t="n">
-        <v>10.69844163348241</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I20" t="n">
-        <v>40.2735672964561</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J20" t="n">
-        <v>88.66269845866263</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K20" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L20" t="n">
-        <v>164.8523693959016</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M20" t="n">
-        <v>183.4300246039516</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N20" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O20" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P20" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q20" t="n">
-        <v>112.8096022407152</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R20" t="n">
-        <v>65.62050377241451</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S20" t="n">
-        <v>23.80478347105878</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T20" t="n">
-        <v>4.572921103436522</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H21" t="n">
-        <v>5.39811450514444</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I21" t="n">
-        <v>19.24395952106442</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J21" t="n">
-        <v>52.80689580168773</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K21" t="n">
-        <v>90.25539588369791</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L21" t="n">
         <v>112.5754335711478</v>
@@ -32567,22 +32569,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P21" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.34728635682278</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R21" t="n">
-        <v>34.70286509301758</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S21" t="n">
-        <v>10.38193230212838</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T21" t="n">
-        <v>2.252891566860916</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H22" t="n">
-        <v>4.166195668016512</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I22" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J22" t="n">
-        <v>33.12934939689611</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K22" t="n">
-        <v>54.44169799309917</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L22" t="n">
-        <v>69.66662981057466</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M22" t="n">
-        <v>73.4536931529741</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N22" t="n">
-        <v>71.70712850687316</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O22" t="n">
-        <v>66.23313931116638</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P22" t="n">
-        <v>56.67389280909164</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2380657444786</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R22" t="n">
-        <v>21.06953351125731</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S22" t="n">
-        <v>8.166254698964874</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T22" t="n">
-        <v>2.002159472359672</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.044642170973505</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H23" t="n">
-        <v>10.69844163348241</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I23" t="n">
-        <v>40.2735672964561</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J23" t="n">
-        <v>88.66269845866263</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K23" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L23" t="n">
-        <v>164.8523693959016</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M23" t="n">
-        <v>183.4300246039516</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N23" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O23" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P23" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q23" t="n">
-        <v>112.8096022407152</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R23" t="n">
-        <v>65.62050377241451</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S23" t="n">
-        <v>23.80478347105878</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T23" t="n">
-        <v>4.572921103436522</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H24" t="n">
-        <v>5.39811450514444</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I24" t="n">
-        <v>19.24395952106442</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J24" t="n">
-        <v>52.80689580168773</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K24" t="n">
-        <v>90.25539588369791</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L24" t="n">
         <v>112.5754335711478</v>
@@ -32804,22 +32806,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P24" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.34728635682278</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R24" t="n">
-        <v>34.70286509301758</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S24" t="n">
-        <v>10.38193230212838</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T24" t="n">
-        <v>2.252891566860916</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H25" t="n">
-        <v>4.166195668016512</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I25" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J25" t="n">
-        <v>33.12934939689611</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K25" t="n">
-        <v>54.44169799309917</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L25" t="n">
-        <v>69.66662981057466</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M25" t="n">
-        <v>73.4536931529741</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N25" t="n">
-        <v>71.70712850687316</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O25" t="n">
-        <v>66.23313931116638</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P25" t="n">
-        <v>56.67389280909164</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2380657444786</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R25" t="n">
-        <v>21.06953351125731</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S25" t="n">
-        <v>8.166254698964874</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T25" t="n">
-        <v>2.002159472359672</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.044642170973505</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H26" t="n">
-        <v>10.69844163348241</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I26" t="n">
-        <v>40.2735672964561</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J26" t="n">
-        <v>88.66269845866263</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K26" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L26" t="n">
-        <v>164.8523693959016</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M26" t="n">
-        <v>183.4300246039516</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N26" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O26" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P26" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q26" t="n">
-        <v>112.8096022407152</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R26" t="n">
-        <v>65.62050377241451</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S26" t="n">
-        <v>23.80478347105878</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T26" t="n">
-        <v>4.572921103436522</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H27" t="n">
-        <v>5.39811450514444</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I27" t="n">
-        <v>19.24395952106442</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J27" t="n">
-        <v>52.80689580168773</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K27" t="n">
-        <v>90.25539588369791</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L27" t="n">
         <v>112.5754335711478</v>
@@ -33041,22 +33043,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P27" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.34728635682278</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R27" t="n">
-        <v>34.70286509301758</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S27" t="n">
-        <v>10.38193230212838</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T27" t="n">
-        <v>2.252891566860916</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H28" t="n">
-        <v>4.166195668016512</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I28" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J28" t="n">
-        <v>33.12934939689611</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K28" t="n">
-        <v>54.44169799309917</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L28" t="n">
-        <v>69.66662981057466</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M28" t="n">
-        <v>73.4536931529741</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N28" t="n">
-        <v>71.70712850687316</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O28" t="n">
-        <v>66.23313931116638</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P28" t="n">
-        <v>56.67389280909164</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2380657444786</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R28" t="n">
-        <v>21.06953351125731</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S28" t="n">
-        <v>8.166254698964874</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T28" t="n">
-        <v>2.002159472359672</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.044642170973505</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H29" t="n">
-        <v>10.69844163348241</v>
+        <v>10.91577516444601</v>
       </c>
       <c r="I29" t="n">
-        <v>40.2735672964561</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J29" t="n">
-        <v>88.66269845866263</v>
+        <v>90.46383716474061</v>
       </c>
       <c r="K29" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L29" t="n">
-        <v>164.8523693959016</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M29" t="n">
-        <v>183.4300246039516</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N29" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O29" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P29" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q29" t="n">
-        <v>112.8096022407152</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R29" t="n">
-        <v>65.62050377241451</v>
+        <v>66.95355173183272</v>
       </c>
       <c r="S29" t="n">
-        <v>23.80478347105878</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T29" t="n">
-        <v>4.572921103436522</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5702872801692707</v>
       </c>
       <c r="H30" t="n">
-        <v>5.39811450514444</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I30" t="n">
-        <v>19.24395952106442</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J30" t="n">
-        <v>52.80689580168773</v>
+        <v>53.87964167599237</v>
       </c>
       <c r="K30" t="n">
-        <v>90.25539588369791</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L30" t="n">
         <v>112.5754335711478</v>
@@ -33278,22 +33280,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P30" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.34728635682278</v>
+        <v>72.79667106160726</v>
       </c>
       <c r="R30" t="n">
-        <v>34.70286509301758</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S30" t="n">
-        <v>10.38193230212838</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T30" t="n">
-        <v>2.252891566860916</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4781096985025665</v>
       </c>
       <c r="H31" t="n">
-        <v>4.166195668016512</v>
+        <v>4.250829864868276</v>
       </c>
       <c r="I31" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J31" t="n">
-        <v>33.12934939689611</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K31" t="n">
-        <v>54.44169799309917</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L31" t="n">
-        <v>69.66662981057466</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M31" t="n">
-        <v>73.4536931529741</v>
+        <v>74.94586846617958</v>
       </c>
       <c r="N31" t="n">
-        <v>71.70712850687316</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O31" t="n">
-        <v>66.23313931116638</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P31" t="n">
-        <v>56.67389280909164</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2380657444786</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R31" t="n">
-        <v>21.06953351125731</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S31" t="n">
-        <v>8.166254698964874</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T31" t="n">
-        <v>2.002159472359672</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02607871082741275</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.044642170973505</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H32" t="n">
-        <v>10.69844163348241</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I32" t="n">
-        <v>40.2735672964561</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J32" t="n">
-        <v>88.66269845866263</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K32" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L32" t="n">
-        <v>164.8523693959016</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M32" t="n">
-        <v>183.4300246039516</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N32" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O32" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P32" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q32" t="n">
-        <v>112.8096022407152</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R32" t="n">
-        <v>65.62050377241451</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S32" t="n">
-        <v>23.80478347105878</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T32" t="n">
-        <v>4.572921103436522</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H33" t="n">
-        <v>5.39811450514444</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I33" t="n">
-        <v>19.24395952106442</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J33" t="n">
-        <v>52.80689580168773</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K33" t="n">
-        <v>90.25539588369791</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L33" t="n">
         <v>112.5754335711478</v>
@@ -33515,22 +33517,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P33" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.34728635682278</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R33" t="n">
-        <v>34.70286509301758</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S33" t="n">
-        <v>10.38193230212838</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T33" t="n">
-        <v>2.252891566860916</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H34" t="n">
-        <v>4.166195668016512</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I34" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J34" t="n">
-        <v>33.12934939689611</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K34" t="n">
-        <v>54.44169799309917</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L34" t="n">
-        <v>69.66662981057466</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M34" t="n">
-        <v>73.4536931529741</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N34" t="n">
-        <v>71.70712850687316</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O34" t="n">
-        <v>66.23313931116638</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P34" t="n">
-        <v>56.67389280909164</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2380657444786</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R34" t="n">
-        <v>21.06953351125731</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S34" t="n">
-        <v>8.166254698964874</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T34" t="n">
-        <v>2.002159472359672</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.044642170973505</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H35" t="n">
-        <v>10.69844163348241</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I35" t="n">
-        <v>40.2735672964561</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J35" t="n">
-        <v>88.66269845866263</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K35" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L35" t="n">
-        <v>164.8523693959016</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M35" t="n">
-        <v>183.4300246039516</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N35" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O35" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P35" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q35" t="n">
-        <v>112.8096022407152</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R35" t="n">
-        <v>65.62050377241451</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S35" t="n">
-        <v>23.80478347105878</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T35" t="n">
-        <v>4.572921103436522</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H36" t="n">
-        <v>5.39811450514444</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I36" t="n">
-        <v>19.24395952106442</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J36" t="n">
-        <v>52.80689580168773</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K36" t="n">
-        <v>90.25539588369791</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L36" t="n">
         <v>112.5754335711478</v>
@@ -33752,22 +33754,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P36" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.34728635682278</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R36" t="n">
-        <v>34.70286509301758</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S36" t="n">
-        <v>10.38193230212838</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T36" t="n">
-        <v>2.252891566860916</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H37" t="n">
-        <v>4.166195668016512</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I37" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J37" t="n">
-        <v>33.12934939689611</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K37" t="n">
-        <v>54.44169799309917</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L37" t="n">
-        <v>69.66662981057466</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M37" t="n">
-        <v>73.4536931529741</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N37" t="n">
-        <v>71.70712850687316</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O37" t="n">
-        <v>66.23313931116638</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P37" t="n">
-        <v>56.67389280909164</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2380657444786</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R37" t="n">
-        <v>21.06953351125731</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S37" t="n">
-        <v>8.166254698964874</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T37" t="n">
-        <v>2.002159472359672</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.044642170973505</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H38" t="n">
-        <v>10.69844163348241</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I38" t="n">
-        <v>40.2735672964561</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J38" t="n">
-        <v>88.66269845866263</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K38" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L38" t="n">
-        <v>164.8523693959016</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M38" t="n">
-        <v>183.4300246039516</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N38" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O38" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P38" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q38" t="n">
-        <v>112.8096022407152</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R38" t="n">
-        <v>65.62050377241451</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S38" t="n">
-        <v>23.80478347105878</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T38" t="n">
-        <v>4.572921103436522</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H39" t="n">
-        <v>5.39811450514444</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I39" t="n">
-        <v>19.24395952106442</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J39" t="n">
-        <v>52.80689580168773</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K39" t="n">
-        <v>90.25539588369791</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L39" t="n">
         <v>112.5754335711478</v>
@@ -33989,22 +33991,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P39" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.34728635682278</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R39" t="n">
-        <v>34.70286509301758</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S39" t="n">
-        <v>10.38193230212838</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T39" t="n">
-        <v>2.252891566860916</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H40" t="n">
-        <v>4.166195668016512</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I40" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J40" t="n">
-        <v>33.12934939689611</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K40" t="n">
-        <v>54.44169799309917</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L40" t="n">
-        <v>69.66662981057466</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M40" t="n">
-        <v>73.4536931529741</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N40" t="n">
-        <v>71.70712850687316</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O40" t="n">
-        <v>66.23313931116638</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P40" t="n">
-        <v>56.67389280909164</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2380657444786</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R40" t="n">
-        <v>21.06953351125731</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S40" t="n">
-        <v>8.166254698964874</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T40" t="n">
-        <v>2.002159472359672</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.044642170973505</v>
+        <v>1.06586355810531</v>
       </c>
       <c r="H41" t="n">
-        <v>10.69844163348241</v>
+        <v>10.915775164446</v>
       </c>
       <c r="I41" t="n">
-        <v>40.2735672964561</v>
+        <v>41.09170482385499</v>
       </c>
       <c r="J41" t="n">
-        <v>88.66269845866263</v>
+        <v>90.4638371647406</v>
       </c>
       <c r="K41" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5818415793384</v>
       </c>
       <c r="L41" t="n">
-        <v>164.8523693959016</v>
+        <v>168.2012634457038</v>
       </c>
       <c r="M41" t="n">
-        <v>183.4300246039516</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N41" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O41" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5860185757161</v>
       </c>
       <c r="P41" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2725119849913</v>
       </c>
       <c r="Q41" t="n">
-        <v>112.8096022407152</v>
+        <v>115.1012733103448</v>
       </c>
       <c r="R41" t="n">
-        <v>65.62050377241451</v>
+        <v>66.9535517318327</v>
       </c>
       <c r="S41" t="n">
-        <v>23.80478347105878</v>
+        <v>24.28836583032476</v>
       </c>
       <c r="T41" t="n">
-        <v>4.572921103436522</v>
+        <v>4.665817725605995</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08526908464842475</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5702872801692705</v>
       </c>
       <c r="H42" t="n">
-        <v>5.39811450514444</v>
+        <v>5.507774521634798</v>
       </c>
       <c r="I42" t="n">
-        <v>19.24395952106442</v>
+        <v>19.63489100582796</v>
       </c>
       <c r="J42" t="n">
-        <v>52.80689580168773</v>
+        <v>53.87964167599236</v>
       </c>
       <c r="K42" t="n">
-        <v>90.25539588369791</v>
+        <v>92.08888944733349</v>
       </c>
       <c r="L42" t="n">
         <v>112.5754335711478</v>
@@ -34226,22 +34228,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P42" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.34728635682278</v>
+        <v>72.79667106160724</v>
       </c>
       <c r="R42" t="n">
-        <v>34.70286509301758</v>
+        <v>35.40783657050964</v>
       </c>
       <c r="S42" t="n">
-        <v>10.38193230212838</v>
+        <v>10.59283610314412</v>
       </c>
       <c r="T42" t="n">
-        <v>2.252891566860916</v>
+        <v>2.298657940682278</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03751890001113624</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4781096985025664</v>
       </c>
       <c r="H43" t="n">
-        <v>4.166195668016512</v>
+        <v>4.250829864868275</v>
       </c>
       <c r="I43" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37806256951355</v>
       </c>
       <c r="J43" t="n">
-        <v>33.12934939689611</v>
+        <v>33.80235568413144</v>
       </c>
       <c r="K43" t="n">
-        <v>54.44169799309917</v>
+        <v>55.54765406238907</v>
       </c>
       <c r="L43" t="n">
-        <v>69.66662981057466</v>
+        <v>71.08187281191793</v>
       </c>
       <c r="M43" t="n">
-        <v>73.4536931529741</v>
+        <v>74.94586846617956</v>
       </c>
       <c r="N43" t="n">
-        <v>71.70712850687316</v>
+        <v>73.16382322630642</v>
       </c>
       <c r="O43" t="n">
-        <v>66.23313931116638</v>
+        <v>67.57863265743551</v>
       </c>
       <c r="P43" t="n">
-        <v>56.67389280909164</v>
+        <v>57.8251948079831</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2380657444786</v>
+        <v>40.03516757188309</v>
       </c>
       <c r="R43" t="n">
-        <v>21.06953351125731</v>
+        <v>21.49755062539721</v>
       </c>
       <c r="S43" t="n">
-        <v>8.166254698964874</v>
+        <v>8.332148109358359</v>
       </c>
       <c r="T43" t="n">
-        <v>2.002159472359672</v>
+        <v>2.042832348147329</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02607871082741274</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.044642170973505</v>
+        <v>1.109598099458393</v>
       </c>
       <c r="H44" t="n">
-        <v>10.69844163348241</v>
+        <v>11.36367153607827</v>
       </c>
       <c r="I44" t="n">
-        <v>40.2735672964561</v>
+        <v>42.77778072936974</v>
       </c>
       <c r="J44" t="n">
-        <v>88.66269845866263</v>
+        <v>94.17575169390686</v>
       </c>
       <c r="K44" t="n">
-        <v>132.8824015559711</v>
+        <v>141.1450392439807</v>
       </c>
       <c r="L44" t="n">
-        <v>164.8523693959016</v>
+        <v>175.1029020802805</v>
       </c>
       <c r="M44" t="n">
-        <v>183.4300246039516</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N44" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O44" t="n">
-        <v>176.0104535846123</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P44" t="n">
-        <v>150.2208499887039</v>
+        <v>159.5615936997414</v>
       </c>
       <c r="Q44" t="n">
-        <v>112.8096022407152</v>
+        <v>119.8241117628876</v>
       </c>
       <c r="R44" t="n">
-        <v>65.62050377241451</v>
+        <v>69.70079161510334</v>
       </c>
       <c r="S44" t="n">
-        <v>23.80478347105878</v>
+        <v>25.28496669140815</v>
       </c>
       <c r="T44" t="n">
-        <v>4.572921103436522</v>
+        <v>4.857265680379118</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08876784795667142</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5936873227432341</v>
       </c>
       <c r="H45" t="n">
-        <v>5.39811450514444</v>
+        <v>5.733769669651761</v>
       </c>
       <c r="I45" t="n">
-        <v>19.24395952106442</v>
+        <v>20.44055036637889</v>
       </c>
       <c r="J45" t="n">
-        <v>52.80689580168773</v>
+        <v>56.09043254040354</v>
       </c>
       <c r="K45" t="n">
-        <v>90.25539588369791</v>
+        <v>95.86748316420022</v>
       </c>
       <c r="L45" t="n">
         <v>112.5754335711478</v>
@@ -34463,22 +34465,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P45" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.34728635682278</v>
+        <v>75.78366596982055</v>
       </c>
       <c r="R45" t="n">
-        <v>34.70286509301758</v>
+        <v>36.86069184540888</v>
       </c>
       <c r="S45" t="n">
-        <v>10.38193230212838</v>
+        <v>11.02748163077892</v>
       </c>
       <c r="T45" t="n">
-        <v>2.252891566860916</v>
+        <v>2.392976533337859</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03905837649626542</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4977275081382016</v>
       </c>
       <c r="H46" t="n">
-        <v>4.166195668016512</v>
+        <v>4.425250026901469</v>
       </c>
       <c r="I46" t="n">
-        <v>14.09179475439532</v>
+        <v>14.96802360837428</v>
       </c>
       <c r="J46" t="n">
-        <v>33.12934939689611</v>
+        <v>35.18933482537086</v>
       </c>
       <c r="K46" t="n">
-        <v>54.44169799309917</v>
+        <v>57.82688685460196</v>
       </c>
       <c r="L46" t="n">
-        <v>69.66662981057466</v>
+        <v>73.998506073565</v>
       </c>
       <c r="M46" t="n">
-        <v>73.4536931529741</v>
+        <v>78.02104929842736</v>
       </c>
       <c r="N46" t="n">
-        <v>71.70712850687316</v>
+        <v>76.16588313173048</v>
       </c>
       <c r="O46" t="n">
-        <v>66.23313931116638</v>
+        <v>70.35152087757056</v>
       </c>
       <c r="P46" t="n">
-        <v>56.67389280909164</v>
+        <v>60.1978797115512</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2380657444786</v>
+        <v>41.6778916132816</v>
       </c>
       <c r="R46" t="n">
-        <v>21.06953351125731</v>
+        <v>22.37963868410495</v>
       </c>
       <c r="S46" t="n">
-        <v>8.166254698964874</v>
+        <v>8.674033028190292</v>
       </c>
       <c r="T46" t="n">
-        <v>2.002159472359672</v>
+        <v>2.126653898408679</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02714877317117467</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_18_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_18_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14796.40543321896</v>
+        <v>-144108.7656128417</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23117713.28184396</v>
+        <v>22843763.11893857</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2548538.716583501</v>
+        <v>2688123.582872712</v>
       </c>
     </row>
     <row r="11">
@@ -22561,49 +22561,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>411.1760772090881</v>
+        <v>411.0328269958786</v>
       </c>
       <c r="H2" t="n">
-        <v>321.6393596860628</v>
+        <v>320.1722984400315</v>
       </c>
       <c r="I2" t="n">
-        <v>141.5242915123168</v>
+        <v>136.0016376675592</v>
       </c>
       <c r="J2" t="n">
-        <v>82.01270964108606</v>
+        <v>69.85452685770001</v>
       </c>
       <c r="K2" t="n">
-        <v>81.2743314685184</v>
+        <v>63.05236715997609</v>
       </c>
       <c r="L2" t="n">
-        <v>70.54245807633525</v>
+        <v>47.93650005528406</v>
       </c>
       <c r="M2" t="n">
-        <v>52.50074545075637</v>
+        <v>27.34726145054154</v>
       </c>
       <c r="N2" t="n">
-        <v>49.56367724059345</v>
+        <v>24.00318357209721</v>
       </c>
       <c r="O2" t="n">
-        <v>57.74591815338317</v>
+        <v>33.60986879248847</v>
       </c>
       <c r="P2" t="n">
-        <v>77.60002049629389</v>
+        <v>57.00046077400765</v>
       </c>
       <c r="Q2" t="n">
-        <v>97.81009740783446</v>
+        <v>82.34068594611185</v>
       </c>
       <c r="R2" t="n">
-        <v>126.9913850495814</v>
+        <v>117.9929438440629</v>
       </c>
       <c r="S2" t="n">
-        <v>167.8816475394799</v>
+        <v>164.6173333059695</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7583856958329</v>
+        <v>218.1313078875085</v>
       </c>
       <c r="U2" t="n">
-        <v>252.2751333654446</v>
+        <v>252.2636733483879</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -22640,49 +22640,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.0309036367328</v>
+        <v>126.9542580155802</v>
       </c>
       <c r="H3" t="n">
-        <v>94.97573514563526</v>
+        <v>94.23549980450369</v>
       </c>
       <c r="I3" t="n">
-        <v>66.73498629082682</v>
+        <v>64.09609100114344</v>
       </c>
       <c r="J3" t="n">
-        <v>64.29014807201071</v>
+        <v>57.04881769811646</v>
       </c>
       <c r="K3" t="n">
-        <v>45.73988577757382</v>
+        <v>33.3632987864562</v>
       </c>
       <c r="L3" t="n">
-        <v>23.48568402129196</v>
+        <v>6.84383544603385</v>
       </c>
       <c r="M3" t="n">
-        <v>11.52036692897309</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18.23594302922992</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30.50273615440041</v>
+        <v>15.86678416430672</v>
       </c>
       <c r="Q3" t="n">
-        <v>61.35930878861527</v>
+        <v>51.57556248148847</v>
       </c>
       <c r="R3" t="n">
-        <v>92.8893016545353</v>
+        <v>88.13054984297376</v>
       </c>
       <c r="S3" t="n">
-        <v>143.6501389339988</v>
+        <v>142.22648013759</v>
       </c>
       <c r="T3" t="n">
-        <v>185.1444101568237</v>
+        <v>184.8354745171779</v>
       </c>
       <c r="U3" t="n">
-        <v>216.2828503105535</v>
+        <v>216.2778078354777</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -22719,49 +22719,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8865599014431</v>
+        <v>166.822302787362</v>
       </c>
       <c r="H4" t="n">
-        <v>154.7205238866194</v>
+        <v>154.1492197268807</v>
       </c>
       <c r="I4" t="n">
-        <v>132.4162590767394</v>
+        <v>130.4838724096476</v>
       </c>
       <c r="J4" t="n">
-        <v>78.86359894146001</v>
+        <v>74.32062097593014</v>
       </c>
       <c r="K4" t="n">
-        <v>64.85774405223553</v>
+        <v>57.39223570718324</v>
       </c>
       <c r="L4" t="n">
-        <v>58.4516830177862</v>
+        <v>48.8984026206825</v>
       </c>
       <c r="M4" t="n">
-        <v>58.95500830344886</v>
+        <v>48.8824135934538</v>
       </c>
       <c r="N4" t="n">
-        <v>51.10446290764006</v>
+        <v>41.27137198649253</v>
       </c>
       <c r="O4" t="n">
-        <v>63.87433869480827</v>
+        <v>54.79188769724385</v>
       </c>
       <c r="P4" t="n">
-        <v>70.29982587808107</v>
+        <v>62.52822000776997</v>
       </c>
       <c r="Q4" t="n">
-        <v>94.29323789634184</v>
+        <v>88.91258082542817</v>
       </c>
       <c r="R4" t="n">
-        <v>132.5594663469447</v>
+        <v>129.6702328356279</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5778357386506</v>
+        <v>204.4580094868928</v>
       </c>
       <c r="T4" t="n">
-        <v>229.3773828810129</v>
+        <v>229.1028297572121</v>
       </c>
       <c r="U4" t="n">
-        <v>284.2995739570064</v>
+        <v>284.2960690235111</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -22798,49 +22798,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>411.0910991671059</v>
+        <v>410.973916419786</v>
       </c>
       <c r="H5" t="n">
-        <v>320.7690783136127</v>
+        <v>319.5689805026228</v>
       </c>
       <c r="I5" t="n">
-        <v>138.2481755487984</v>
+        <v>133.7304876827481</v>
       </c>
       <c r="J5" t="n">
-        <v>74.8003045504001</v>
+        <v>64.8545653500581</v>
       </c>
       <c r="K5" t="n">
-        <v>70.46480586072632</v>
+        <v>55.55872096633313</v>
       </c>
       <c r="L5" t="n">
-        <v>57.13228571623071</v>
+        <v>38.63996931854626</v>
       </c>
       <c r="M5" t="n">
-        <v>37.57934483655106</v>
+        <v>17.00307975621641</v>
       </c>
       <c r="N5" t="n">
-        <v>34.40083276460621</v>
+        <v>13.49162220344891</v>
       </c>
       <c r="O5" t="n">
-        <v>43.42807408235635</v>
+        <v>23.68409946486128</v>
       </c>
       <c r="P5" t="n">
-        <v>65.38007183670243</v>
+        <v>48.52904629366725</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.63342487673017</v>
+        <v>75.97900647208878</v>
       </c>
       <c r="R5" t="n">
-        <v>121.6533831199176</v>
+        <v>114.2924023685842</v>
       </c>
       <c r="S5" t="n">
-        <v>165.9452104078107</v>
+        <v>163.2749085532586</v>
       </c>
       <c r="T5" t="n">
-        <v>218.3863943170558</v>
+        <v>217.873426840663</v>
       </c>
       <c r="U5" t="n">
-        <v>252.2683351220861</v>
+        <v>252.2589605023005</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -22877,22 +22877,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>126.9854363758741</v>
+        <v>126.9227380785699</v>
       </c>
       <c r="H6" t="n">
-        <v>94.5366171262896</v>
+        <v>93.93108357074615</v>
       </c>
       <c r="I6" t="n">
-        <v>65.16955647617495</v>
+        <v>63.01086509969176</v>
       </c>
       <c r="J6" t="n">
-        <v>59.9944890099195</v>
+        <v>54.07087487733038</v>
       </c>
       <c r="K6" t="n">
-        <v>38.39792023795113</v>
+        <v>28.27352018597891</v>
       </c>
       <c r="L6" t="n">
-        <v>13.61350529844597</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -22901,25 +22901,25 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>21.82048350850063</v>
+        <v>9.847858648713938</v>
       </c>
       <c r="Q6" t="n">
-        <v>55.55545282356709</v>
+        <v>47.55207017118913</v>
       </c>
       <c r="R6" t="n">
-        <v>90.06634312508154</v>
+        <v>86.17354884157885</v>
       </c>
       <c r="S6" t="n">
-        <v>142.8056045053299</v>
+        <v>141.6410111321571</v>
       </c>
       <c r="T6" t="n">
-        <v>184.9611451887135</v>
+        <v>184.7084270517723</v>
       </c>
       <c r="U6" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2757341554112</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -22956,49 +22956,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7958775309959</v>
       </c>
       <c r="H7" t="n">
-        <v>154.3816182209092</v>
+        <v>153.9142751748253</v>
       </c>
       <c r="I7" t="n">
-        <v>131.269940117466</v>
+        <v>129.6891928818367</v>
       </c>
       <c r="J7" t="n">
-        <v>76.16864049337387</v>
+        <v>72.45235535084397</v>
       </c>
       <c r="K7" t="n">
-        <v>60.42909946350712</v>
+        <v>54.32210137664431</v>
       </c>
       <c r="L7" t="n">
-        <v>52.78454267318021</v>
+        <v>44.96968768784731</v>
       </c>
       <c r="M7" t="n">
-        <v>52.97980340177092</v>
+        <v>44.74013454325953</v>
       </c>
       <c r="N7" t="n">
-        <v>45.27133502328439</v>
+        <v>37.22758707366296</v>
       </c>
       <c r="O7" t="n">
-        <v>58.48650097449923</v>
+        <v>51.05679782469148</v>
       </c>
       <c r="P7" t="n">
-        <v>65.68959993062856</v>
+        <v>59.33220536508687</v>
       </c>
       <c r="Q7" t="n">
-        <v>91.10135641693829</v>
+        <v>86.69982594916885</v>
       </c>
       <c r="R7" t="n">
-        <v>130.8455323770033</v>
+        <v>128.4820572175649</v>
       </c>
       <c r="S7" t="n">
-        <v>204.9135390503414</v>
+        <v>203.9974893373119</v>
       </c>
       <c r="T7" t="n">
-        <v>229.2145141050582</v>
+        <v>228.9899218436477</v>
       </c>
       <c r="U7" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2946276458911</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -23035,49 +23035,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H8" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I8" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J8" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K8" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L8" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M8" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N8" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P8" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q8" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R8" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S8" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T8" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U8" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -23114,22 +23114,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H9" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I9" t="n">
-        <v>65.16955647617495</v>
+        <v>61.61797422893559</v>
       </c>
       <c r="J9" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K9" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L9" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23138,25 +23138,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q9" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R9" t="n">
-        <v>90.06634312508154</v>
+        <v>83.66173187770315</v>
       </c>
       <c r="S9" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T9" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U9" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -23193,49 +23193,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H10" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I10" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J10" t="n">
-        <v>76.16864049337387</v>
+        <v>70.05443052261322</v>
       </c>
       <c r="K10" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L10" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M10" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N10" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O10" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P10" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q10" t="n">
-        <v>91.10135641693829</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R10" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S10" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T10" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U10" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -23272,22 +23272,22 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>410.8770831222486</v>
+        <v>410.8333485808955</v>
       </c>
       <c r="H11" t="n">
-        <v>318.5772864942178</v>
+        <v>318.1293901225856</v>
       </c>
       <c r="I11" t="n">
-        <v>129.9973219794369</v>
+        <v>128.3112460739222</v>
       </c>
       <c r="J11" t="n">
-        <v>56.63596026319202</v>
+        <v>52.92404573402577</v>
       </c>
       <c r="K11" t="n">
-        <v>43.24116239470834</v>
+        <v>37.67796473006604</v>
       </c>
       <c r="L11" t="n">
-        <v>23.35894871741081</v>
+        <v>16.45731008283411</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23296,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>7.368778204404322</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>34.60429706616523</v>
+        <v>28.31521535141513</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.52209971264539</v>
+        <v>60.79926126010261</v>
       </c>
       <c r="R11" t="n">
-        <v>108.2096977421496</v>
+        <v>105.462457858879</v>
       </c>
       <c r="S11" t="n">
-        <v>161.0683197856248</v>
+        <v>160.0717189245414</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4495390806929</v>
+        <v>217.2580911259198</v>
       </c>
       <c r="U11" t="n">
-        <v>252.2512138384975</v>
+        <v>252.2477150751892</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -23351,19 +23351,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>126.870927696779</v>
+        <v>126.847527654205</v>
       </c>
       <c r="H12" t="n">
-        <v>93.43070435713413</v>
+        <v>93.20470920911717</v>
       </c>
       <c r="I12" t="n">
-        <v>61.22704274417205</v>
+        <v>60.42138338362111</v>
       </c>
       <c r="J12" t="n">
-        <v>49.17592999067433</v>
+        <v>46.96513912626316</v>
       </c>
       <c r="K12" t="n">
-        <v>19.90727971933319</v>
+        <v>16.12868600246647</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.93852038328524</v>
+        <v>37.95152547507195</v>
       </c>
       <c r="R12" t="n">
-        <v>82.95676040021108</v>
+        <v>81.50390512531185</v>
       </c>
       <c r="S12" t="n">
-        <v>140.678656014243</v>
+        <v>140.2440104866082</v>
       </c>
       <c r="T12" t="n">
-        <v>184.4995948549924</v>
+        <v>184.4052762623368</v>
       </c>
       <c r="U12" t="n">
-        <v>216.2723255776618</v>
+        <v>216.2707861011767</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -23430,49 +23430,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>166.7524414473259</v>
+        <v>166.7328236376903</v>
       </c>
       <c r="H13" t="n">
-        <v>153.5280889036506</v>
+        <v>153.3536687416174</v>
       </c>
       <c r="I13" t="n">
-        <v>128.3829513838347</v>
+        <v>127.792990344974</v>
       </c>
       <c r="J13" t="n">
-        <v>69.38142423537789</v>
+        <v>67.99444509413848</v>
       </c>
       <c r="K13" t="n">
-        <v>49.27561820117091</v>
+        <v>46.99638540895803</v>
       </c>
       <c r="L13" t="n">
-        <v>38.51192666658817</v>
+        <v>35.5952934049411</v>
       </c>
       <c r="M13" t="n">
-        <v>37.93133099124952</v>
+        <v>34.85615015900174</v>
       </c>
       <c r="N13" t="n">
-        <v>30.58068165169554</v>
+        <v>27.57862174627148</v>
       </c>
       <c r="O13" t="n">
-        <v>44.91730483468676</v>
+        <v>42.1444166145517</v>
       </c>
       <c r="P13" t="n">
-        <v>54.07880848194932</v>
+        <v>51.70612357838122</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.06264625204166</v>
+        <v>81.41992221064316</v>
       </c>
       <c r="R13" t="n">
-        <v>126.5290129463684</v>
+        <v>125.6469248876606</v>
       </c>
       <c r="S13" t="n">
-        <v>203.2405168609909</v>
+        <v>202.898631942159</v>
       </c>
       <c r="T13" t="n">
-        <v>228.8043313043306</v>
+        <v>228.7205097540693</v>
       </c>
       <c r="U13" t="n">
-        <v>284.2922584049637</v>
+        <v>284.2911883426199</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23509,22 +23509,22 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>410.8770831222486</v>
+        <v>410.8333485808955</v>
       </c>
       <c r="H14" t="n">
-        <v>318.5772864942178</v>
+        <v>318.1293901225856</v>
       </c>
       <c r="I14" t="n">
-        <v>129.9973219794369</v>
+        <v>128.3112460739222</v>
       </c>
       <c r="J14" t="n">
-        <v>56.63596026319203</v>
+        <v>52.92404573402577</v>
       </c>
       <c r="K14" t="n">
-        <v>43.24116239470834</v>
+        <v>37.67796473006604</v>
       </c>
       <c r="L14" t="n">
-        <v>23.35894871741084</v>
+        <v>16.45731008283411</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23533,25 +23533,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>7.36877820440435</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>34.60429706616523</v>
+        <v>28.31521535141513</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.5220997126454</v>
+        <v>60.79926126010261</v>
       </c>
       <c r="R14" t="n">
-        <v>108.2096977421496</v>
+        <v>105.462457858879</v>
       </c>
       <c r="S14" t="n">
-        <v>161.0683197856248</v>
+        <v>160.0717189245414</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4495390806929</v>
+        <v>217.2580911259198</v>
       </c>
       <c r="U14" t="n">
-        <v>252.2512138384975</v>
+        <v>252.2477150751892</v>
       </c>
       <c r="V14" t="n">
         <v>333.6094813630181</v>
@@ -23588,19 +23588,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>126.870927696779</v>
+        <v>126.847527654205</v>
       </c>
       <c r="H15" t="n">
-        <v>93.43070435713413</v>
+        <v>93.20470920911717</v>
       </c>
       <c r="I15" t="n">
-        <v>61.22704274417205</v>
+        <v>60.42138338362111</v>
       </c>
       <c r="J15" t="n">
-        <v>49.17592999067433</v>
+        <v>46.96513912626316</v>
       </c>
       <c r="K15" t="n">
-        <v>19.90727971933319</v>
+        <v>16.12868600246647</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.93852038328525</v>
+        <v>37.95152547507195</v>
       </c>
       <c r="R15" t="n">
-        <v>82.9567604002111</v>
+        <v>81.50390512531185</v>
       </c>
       <c r="S15" t="n">
-        <v>140.678656014243</v>
+        <v>140.2440104866082</v>
       </c>
       <c r="T15" t="n">
-        <v>184.4995948549924</v>
+        <v>184.4052762623368</v>
       </c>
       <c r="U15" t="n">
-        <v>216.2723255776618</v>
+        <v>216.2707861011767</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -23667,49 +23667,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7524414473259</v>
+        <v>166.7328236376903</v>
       </c>
       <c r="H16" t="n">
-        <v>153.5280889036506</v>
+        <v>153.3536687416174</v>
       </c>
       <c r="I16" t="n">
-        <v>128.3829513838347</v>
+        <v>127.792990344974</v>
       </c>
       <c r="J16" t="n">
-        <v>69.38142423537789</v>
+        <v>67.99444509413848</v>
       </c>
       <c r="K16" t="n">
-        <v>49.27561820117091</v>
+        <v>46.99638540895803</v>
       </c>
       <c r="L16" t="n">
-        <v>38.51192666658817</v>
+        <v>35.5952934049411</v>
       </c>
       <c r="M16" t="n">
-        <v>37.93133099124954</v>
+        <v>34.85615015900174</v>
       </c>
       <c r="N16" t="n">
-        <v>30.58068165169554</v>
+        <v>27.57862174627148</v>
       </c>
       <c r="O16" t="n">
-        <v>44.91730483468676</v>
+        <v>42.1444166145517</v>
       </c>
       <c r="P16" t="n">
-        <v>54.07880848194932</v>
+        <v>51.70612357838122</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.06264625204167</v>
+        <v>81.41992221064316</v>
       </c>
       <c r="R16" t="n">
-        <v>126.5290129463684</v>
+        <v>125.6469248876606</v>
       </c>
       <c r="S16" t="n">
-        <v>203.2405168609909</v>
+        <v>202.898631942159</v>
       </c>
       <c r="T16" t="n">
-        <v>228.8043313043306</v>
+        <v>228.7205097540693</v>
       </c>
       <c r="U16" t="n">
-        <v>284.2922584049637</v>
+        <v>284.2911883426199</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23746,22 +23746,22 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>410.8770831222486</v>
+        <v>410.8333485808955</v>
       </c>
       <c r="H17" t="n">
-        <v>318.5772864942178</v>
+        <v>318.1293901225856</v>
       </c>
       <c r="I17" t="n">
-        <v>129.9973219794369</v>
+        <v>128.3112460739222</v>
       </c>
       <c r="J17" t="n">
-        <v>56.63596026319203</v>
+        <v>52.92404573402577</v>
       </c>
       <c r="K17" t="n">
-        <v>43.24116239470834</v>
+        <v>37.67796473006604</v>
       </c>
       <c r="L17" t="n">
-        <v>23.35894871741084</v>
+        <v>16.45731008283411</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23770,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>7.36877820440435</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>34.60429706616523</v>
+        <v>28.31521535141513</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.5220997126454</v>
+        <v>60.79926126010261</v>
       </c>
       <c r="R17" t="n">
-        <v>108.2096977421496</v>
+        <v>105.462457858879</v>
       </c>
       <c r="S17" t="n">
-        <v>161.0683197856248</v>
+        <v>160.0717189245414</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4495390806929</v>
+        <v>217.2580911259198</v>
       </c>
       <c r="U17" t="n">
-        <v>252.2512138384975</v>
+        <v>252.2477150751892</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -23825,19 +23825,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>126.870927696779</v>
+        <v>126.847527654205</v>
       </c>
       <c r="H18" t="n">
-        <v>93.43070435713413</v>
+        <v>93.20470920911717</v>
       </c>
       <c r="I18" t="n">
-        <v>61.22704274417205</v>
+        <v>60.42138338362111</v>
       </c>
       <c r="J18" t="n">
-        <v>49.17592999067433</v>
+        <v>46.96513912626316</v>
       </c>
       <c r="K18" t="n">
-        <v>19.90727971933319</v>
+        <v>16.12868600246647</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.93852038328525</v>
+        <v>37.95152547507195</v>
       </c>
       <c r="R18" t="n">
-        <v>82.9567604002111</v>
+        <v>81.50390512531185</v>
       </c>
       <c r="S18" t="n">
-        <v>140.678656014243</v>
+        <v>140.2440104866082</v>
       </c>
       <c r="T18" t="n">
-        <v>184.4995948549924</v>
+        <v>184.4052762623368</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2723255776618</v>
+        <v>216.2707861011767</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -23904,49 +23904,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7524414473259</v>
+        <v>166.7328236376903</v>
       </c>
       <c r="H19" t="n">
-        <v>153.5280889036506</v>
+        <v>153.3536687416174</v>
       </c>
       <c r="I19" t="n">
-        <v>128.3829513838347</v>
+        <v>127.792990344974</v>
       </c>
       <c r="J19" t="n">
-        <v>69.38142423537789</v>
+        <v>67.99444509413848</v>
       </c>
       <c r="K19" t="n">
-        <v>49.27561820117091</v>
+        <v>46.99638540895803</v>
       </c>
       <c r="L19" t="n">
-        <v>38.51192666658817</v>
+        <v>35.5952934049411</v>
       </c>
       <c r="M19" t="n">
-        <v>37.93133099124954</v>
+        <v>34.85615015900174</v>
       </c>
       <c r="N19" t="n">
-        <v>30.58068165169554</v>
+        <v>27.57862174627148</v>
       </c>
       <c r="O19" t="n">
-        <v>44.91730483468676</v>
+        <v>42.1444166145517</v>
       </c>
       <c r="P19" t="n">
-        <v>54.07880848194932</v>
+        <v>51.70612357838122</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.06264625204167</v>
+        <v>81.41992221064316</v>
       </c>
       <c r="R19" t="n">
-        <v>126.5290129463684</v>
+        <v>125.6469248876606</v>
       </c>
       <c r="S19" t="n">
-        <v>203.2405168609909</v>
+        <v>202.898631942159</v>
       </c>
       <c r="T19" t="n">
-        <v>228.8043313043306</v>
+        <v>228.7205097540693</v>
       </c>
       <c r="U19" t="n">
-        <v>284.2922584049637</v>
+        <v>284.2911883426199</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23983,22 +23983,22 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>410.8770831222486</v>
+        <v>410.8333485808955</v>
       </c>
       <c r="H20" t="n">
-        <v>318.5772864942178</v>
+        <v>318.1293901225855</v>
       </c>
       <c r="I20" t="n">
-        <v>129.9973219794369</v>
+        <v>128.3112460739222</v>
       </c>
       <c r="J20" t="n">
-        <v>56.63596026319203</v>
+        <v>52.92404573402577</v>
       </c>
       <c r="K20" t="n">
-        <v>43.24116239470834</v>
+        <v>37.67796473006604</v>
       </c>
       <c r="L20" t="n">
-        <v>23.35894871741084</v>
+        <v>16.45731008283411</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24007,25 +24007,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>7.36877820440435</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>34.60429706616523</v>
+        <v>28.31521535141513</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.5220997126454</v>
+        <v>60.7992612601026</v>
       </c>
       <c r="R20" t="n">
-        <v>108.2096977421496</v>
+        <v>105.462457858879</v>
       </c>
       <c r="S20" t="n">
-        <v>161.0683197856248</v>
+        <v>160.0717189245414</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4495390806929</v>
+        <v>217.2580911259198</v>
       </c>
       <c r="U20" t="n">
-        <v>252.2512138384975</v>
+        <v>252.2477150751892</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
@@ -24062,19 +24062,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>126.870927696779</v>
+        <v>126.847527654205</v>
       </c>
       <c r="H21" t="n">
-        <v>93.43070435713413</v>
+        <v>93.20470920911717</v>
       </c>
       <c r="I21" t="n">
-        <v>61.22704274417205</v>
+        <v>60.42138338362111</v>
       </c>
       <c r="J21" t="n">
-        <v>49.17592999067433</v>
+        <v>46.96513912626315</v>
       </c>
       <c r="K21" t="n">
-        <v>19.90727971933319</v>
+        <v>16.12868600246645</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.93852038328525</v>
+        <v>37.95152547507195</v>
       </c>
       <c r="R21" t="n">
-        <v>82.9567604002111</v>
+        <v>81.50390512531185</v>
       </c>
       <c r="S21" t="n">
-        <v>140.678656014243</v>
+        <v>140.2440104866082</v>
       </c>
       <c r="T21" t="n">
-        <v>184.4995948549924</v>
+        <v>184.4052762623368</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2723255776618</v>
+        <v>216.2707861011767</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -24141,49 +24141,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7524414473259</v>
+        <v>166.7328236376903</v>
       </c>
       <c r="H22" t="n">
-        <v>153.5280889036506</v>
+        <v>153.3536687416174</v>
       </c>
       <c r="I22" t="n">
-        <v>128.3829513838347</v>
+        <v>127.792990344974</v>
       </c>
       <c r="J22" t="n">
-        <v>69.38142423537789</v>
+        <v>67.99444509413848</v>
       </c>
       <c r="K22" t="n">
-        <v>49.27561820117091</v>
+        <v>46.99638540895803</v>
       </c>
       <c r="L22" t="n">
-        <v>38.51192666658817</v>
+        <v>35.5952934049411</v>
       </c>
       <c r="M22" t="n">
-        <v>37.93133099124954</v>
+        <v>34.85615015900174</v>
       </c>
       <c r="N22" t="n">
-        <v>30.58068165169554</v>
+        <v>27.57862174627148</v>
       </c>
       <c r="O22" t="n">
-        <v>44.91730483468676</v>
+        <v>42.1444166145517</v>
       </c>
       <c r="P22" t="n">
-        <v>54.07880848194932</v>
+        <v>51.70612357838122</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.06264625204167</v>
+        <v>81.41992221064316</v>
       </c>
       <c r="R22" t="n">
-        <v>126.5290129463684</v>
+        <v>125.6469248876606</v>
       </c>
       <c r="S22" t="n">
-        <v>203.2405168609909</v>
+        <v>202.898631942159</v>
       </c>
       <c r="T22" t="n">
-        <v>228.8043313043306</v>
+        <v>228.7205097540693</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2922584049637</v>
+        <v>284.2911883426199</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
@@ -24220,22 +24220,22 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>410.8770831222486</v>
+        <v>410.8333485808955</v>
       </c>
       <c r="H23" t="n">
-        <v>318.5772864942178</v>
+        <v>318.1293901225856</v>
       </c>
       <c r="I23" t="n">
-        <v>129.9973219794369</v>
+        <v>128.3112460739222</v>
       </c>
       <c r="J23" t="n">
-        <v>56.63596026319203</v>
+        <v>52.92404573402577</v>
       </c>
       <c r="K23" t="n">
-        <v>43.24116239470834</v>
+        <v>37.67796473006604</v>
       </c>
       <c r="L23" t="n">
-        <v>23.35894871741084</v>
+        <v>16.45731008283411</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24244,25 +24244,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>7.36877820440435</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>34.60429706616523</v>
+        <v>28.31521535141513</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.5220997126454</v>
+        <v>60.79926126010261</v>
       </c>
       <c r="R23" t="n">
-        <v>108.2096977421496</v>
+        <v>105.462457858879</v>
       </c>
       <c r="S23" t="n">
-        <v>161.0683197856248</v>
+        <v>160.0717189245414</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4495390806929</v>
+        <v>217.2580911259198</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2512138384975</v>
+        <v>252.2477150751892</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -24299,19 +24299,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>126.870927696779</v>
+        <v>126.847527654205</v>
       </c>
       <c r="H24" t="n">
-        <v>93.43070435713413</v>
+        <v>93.20470920911717</v>
       </c>
       <c r="I24" t="n">
-        <v>61.22704274417205</v>
+        <v>60.42138338362111</v>
       </c>
       <c r="J24" t="n">
-        <v>49.17592999067433</v>
+        <v>46.96513912626316</v>
       </c>
       <c r="K24" t="n">
-        <v>19.90727971933319</v>
+        <v>16.12868600246647</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.93852038328525</v>
+        <v>37.95152547507195</v>
       </c>
       <c r="R24" t="n">
-        <v>82.9567604002111</v>
+        <v>81.50390512531185</v>
       </c>
       <c r="S24" t="n">
-        <v>140.678656014243</v>
+        <v>140.2440104866082</v>
       </c>
       <c r="T24" t="n">
-        <v>184.4995948549924</v>
+        <v>184.4052762623368</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2723255776618</v>
+        <v>216.2707861011767</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -24378,49 +24378,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7524414473259</v>
+        <v>166.7328236376903</v>
       </c>
       <c r="H25" t="n">
-        <v>153.5280889036506</v>
+        <v>153.3536687416174</v>
       </c>
       <c r="I25" t="n">
-        <v>128.3829513838347</v>
+        <v>127.792990344974</v>
       </c>
       <c r="J25" t="n">
-        <v>69.38142423537789</v>
+        <v>67.99444509413848</v>
       </c>
       <c r="K25" t="n">
-        <v>49.27561820117091</v>
+        <v>46.99638540895803</v>
       </c>
       <c r="L25" t="n">
-        <v>38.51192666658817</v>
+        <v>35.5952934049411</v>
       </c>
       <c r="M25" t="n">
-        <v>37.93133099124954</v>
+        <v>34.85615015900174</v>
       </c>
       <c r="N25" t="n">
-        <v>30.58068165169554</v>
+        <v>27.57862174627148</v>
       </c>
       <c r="O25" t="n">
-        <v>44.91730483468676</v>
+        <v>42.1444166145517</v>
       </c>
       <c r="P25" t="n">
-        <v>54.07880848194932</v>
+        <v>51.70612357838122</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.06264625204167</v>
+        <v>81.41992221064316</v>
       </c>
       <c r="R25" t="n">
-        <v>126.5290129463684</v>
+        <v>125.6469248876606</v>
       </c>
       <c r="S25" t="n">
-        <v>203.2405168609909</v>
+        <v>202.898631942159</v>
       </c>
       <c r="T25" t="n">
-        <v>228.8043313043306</v>
+        <v>228.7205097540693</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2922584049637</v>
+        <v>284.2911883426199</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
@@ -24457,22 +24457,22 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>410.8770831222486</v>
+        <v>410.8333485808955</v>
       </c>
       <c r="H26" t="n">
-        <v>318.5772864942178</v>
+        <v>318.1293901225856</v>
       </c>
       <c r="I26" t="n">
-        <v>129.9973219794369</v>
+        <v>128.3112460739222</v>
       </c>
       <c r="J26" t="n">
-        <v>56.63596026319203</v>
+        <v>52.92404573402577</v>
       </c>
       <c r="K26" t="n">
-        <v>43.24116239470834</v>
+        <v>37.67796473006604</v>
       </c>
       <c r="L26" t="n">
-        <v>23.35894871741084</v>
+        <v>16.45731008283411</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24481,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>7.36877820440435</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>34.60429706616523</v>
+        <v>28.31521535141513</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.5220997126454</v>
+        <v>60.79926126010261</v>
       </c>
       <c r="R26" t="n">
-        <v>108.2096977421496</v>
+        <v>105.462457858879</v>
       </c>
       <c r="S26" t="n">
-        <v>161.0683197856248</v>
+        <v>160.0717189245414</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4495390806929</v>
+        <v>217.2580911259198</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2512138384975</v>
+        <v>252.2477150751892</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -24536,19 +24536,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>126.870927696779</v>
+        <v>126.847527654205</v>
       </c>
       <c r="H27" t="n">
-        <v>93.43070435713413</v>
+        <v>93.20470920911717</v>
       </c>
       <c r="I27" t="n">
-        <v>61.22704274417205</v>
+        <v>60.42138338362111</v>
       </c>
       <c r="J27" t="n">
-        <v>49.17592999067433</v>
+        <v>46.96513912626316</v>
       </c>
       <c r="K27" t="n">
-        <v>19.90727971933319</v>
+        <v>16.12868600246647</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.93852038328525</v>
+        <v>37.95152547507195</v>
       </c>
       <c r="R27" t="n">
-        <v>82.9567604002111</v>
+        <v>81.50390512531185</v>
       </c>
       <c r="S27" t="n">
-        <v>140.678656014243</v>
+        <v>140.2440104866082</v>
       </c>
       <c r="T27" t="n">
-        <v>184.4995948549924</v>
+        <v>184.4052762623368</v>
       </c>
       <c r="U27" t="n">
-        <v>216.2723255776618</v>
+        <v>216.2707861011767</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -24615,49 +24615,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7524414473259</v>
+        <v>166.7328236376903</v>
       </c>
       <c r="H28" t="n">
-        <v>153.5280889036506</v>
+        <v>153.3536687416174</v>
       </c>
       <c r="I28" t="n">
-        <v>128.3829513838347</v>
+        <v>127.792990344974</v>
       </c>
       <c r="J28" t="n">
-        <v>69.38142423537789</v>
+        <v>67.99444509413848</v>
       </c>
       <c r="K28" t="n">
-        <v>49.27561820117091</v>
+        <v>46.99638540895803</v>
       </c>
       <c r="L28" t="n">
-        <v>38.51192666658817</v>
+        <v>35.5952934049411</v>
       </c>
       <c r="M28" t="n">
-        <v>37.93133099124954</v>
+        <v>34.85615015900174</v>
       </c>
       <c r="N28" t="n">
-        <v>30.58068165169554</v>
+        <v>27.57862174627148</v>
       </c>
       <c r="O28" t="n">
-        <v>44.91730483468676</v>
+        <v>42.1444166145517</v>
       </c>
       <c r="P28" t="n">
-        <v>54.07880848194932</v>
+        <v>51.70612357838122</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.06264625204167</v>
+        <v>81.41992221064316</v>
       </c>
       <c r="R28" t="n">
-        <v>126.5290129463684</v>
+        <v>125.6469248876606</v>
       </c>
       <c r="S28" t="n">
-        <v>203.2405168609909</v>
+        <v>202.898631942159</v>
       </c>
       <c r="T28" t="n">
-        <v>228.8043313043306</v>
+        <v>228.7205097540693</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2922584049637</v>
+        <v>284.2911883426199</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -24694,22 +24694,22 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>410.8770831222486</v>
+        <v>410.8333485808955</v>
       </c>
       <c r="H29" t="n">
-        <v>318.5772864942178</v>
+        <v>318.1293901225856</v>
       </c>
       <c r="I29" t="n">
-        <v>129.9973219794369</v>
+        <v>128.3112460739222</v>
       </c>
       <c r="J29" t="n">
-        <v>56.63596026319202</v>
+        <v>52.92404573402577</v>
       </c>
       <c r="K29" t="n">
-        <v>43.24116239470834</v>
+        <v>37.67796473006604</v>
       </c>
       <c r="L29" t="n">
-        <v>23.35894871741081</v>
+        <v>16.45731008283411</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24718,25 +24718,25 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>7.368778204404322</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>34.60429706616523</v>
+        <v>28.31521535141513</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.52209971264539</v>
+        <v>60.79926126010261</v>
       </c>
       <c r="R29" t="n">
-        <v>108.2096977421496</v>
+        <v>105.462457858879</v>
       </c>
       <c r="S29" t="n">
-        <v>161.0683197856248</v>
+        <v>160.0717189245414</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4495390806929</v>
+        <v>217.2580911259198</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2512138384975</v>
+        <v>252.2477150751892</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -24773,19 +24773,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>126.870927696779</v>
+        <v>126.847527654205</v>
       </c>
       <c r="H30" t="n">
-        <v>93.43070435713413</v>
+        <v>93.20470920911717</v>
       </c>
       <c r="I30" t="n">
-        <v>61.22704274417205</v>
+        <v>60.42138338362111</v>
       </c>
       <c r="J30" t="n">
-        <v>49.17592999067433</v>
+        <v>46.96513912626316</v>
       </c>
       <c r="K30" t="n">
-        <v>19.90727971933319</v>
+        <v>16.12868600246647</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24803,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.93852038328524</v>
+        <v>37.95152547507195</v>
       </c>
       <c r="R30" t="n">
-        <v>82.95676040021108</v>
+        <v>81.50390512531185</v>
       </c>
       <c r="S30" t="n">
-        <v>140.678656014243</v>
+        <v>140.2440104866082</v>
       </c>
       <c r="T30" t="n">
-        <v>184.4995948549924</v>
+        <v>184.4052762623368</v>
       </c>
       <c r="U30" t="n">
-        <v>216.2723255776618</v>
+        <v>216.2707861011767</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -24852,49 +24852,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7524414473259</v>
+        <v>166.7328236376903</v>
       </c>
       <c r="H31" t="n">
-        <v>153.5280889036506</v>
+        <v>153.3536687416174</v>
       </c>
       <c r="I31" t="n">
-        <v>128.3829513838347</v>
+        <v>127.792990344974</v>
       </c>
       <c r="J31" t="n">
-        <v>69.38142423537789</v>
+        <v>67.99444509413848</v>
       </c>
       <c r="K31" t="n">
-        <v>49.27561820117091</v>
+        <v>46.99638540895803</v>
       </c>
       <c r="L31" t="n">
-        <v>38.51192666658817</v>
+        <v>35.5952934049411</v>
       </c>
       <c r="M31" t="n">
-        <v>37.93133099124952</v>
+        <v>34.85615015900174</v>
       </c>
       <c r="N31" t="n">
-        <v>30.58068165169554</v>
+        <v>27.57862174627148</v>
       </c>
       <c r="O31" t="n">
-        <v>44.91730483468676</v>
+        <v>42.1444166145517</v>
       </c>
       <c r="P31" t="n">
-        <v>54.07880848194932</v>
+        <v>51.70612357838122</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.06264625204166</v>
+        <v>81.41992221064316</v>
       </c>
       <c r="R31" t="n">
-        <v>126.5290129463684</v>
+        <v>125.6469248876606</v>
       </c>
       <c r="S31" t="n">
-        <v>203.2405168609909</v>
+        <v>202.898631942159</v>
       </c>
       <c r="T31" t="n">
-        <v>228.8043313043306</v>
+        <v>228.7205097540693</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2922584049637</v>
+        <v>284.2911883426199</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24931,22 +24931,22 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>410.8770831222486</v>
+        <v>410.8333485808955</v>
       </c>
       <c r="H32" t="n">
-        <v>318.5772864942178</v>
+        <v>318.1293901225856</v>
       </c>
       <c r="I32" t="n">
-        <v>129.9973219794369</v>
+        <v>128.3112460739222</v>
       </c>
       <c r="J32" t="n">
-        <v>56.63596026319203</v>
+        <v>52.92404573402577</v>
       </c>
       <c r="K32" t="n">
-        <v>43.24116239470834</v>
+        <v>37.67796473006604</v>
       </c>
       <c r="L32" t="n">
-        <v>23.35894871741084</v>
+        <v>16.45731008283411</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24955,25 +24955,25 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>7.36877820440435</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>34.60429706616523</v>
+        <v>28.31521535141513</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.5220997126454</v>
+        <v>60.79926126010261</v>
       </c>
       <c r="R32" t="n">
-        <v>108.2096977421496</v>
+        <v>105.462457858879</v>
       </c>
       <c r="S32" t="n">
-        <v>161.0683197856248</v>
+        <v>160.0717189245414</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4495390806929</v>
+        <v>217.2580911259198</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2512138384975</v>
+        <v>252.2477150751892</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -25010,19 +25010,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>126.870927696779</v>
+        <v>126.847527654205</v>
       </c>
       <c r="H33" t="n">
-        <v>93.43070435713413</v>
+        <v>93.20470920911717</v>
       </c>
       <c r="I33" t="n">
-        <v>61.22704274417205</v>
+        <v>60.42138338362111</v>
       </c>
       <c r="J33" t="n">
-        <v>49.17592999067433</v>
+        <v>46.96513912626316</v>
       </c>
       <c r="K33" t="n">
-        <v>19.90727971933319</v>
+        <v>16.12868600246647</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.93852038328525</v>
+        <v>37.95152547507195</v>
       </c>
       <c r="R33" t="n">
-        <v>82.9567604002111</v>
+        <v>81.50390512531185</v>
       </c>
       <c r="S33" t="n">
-        <v>140.678656014243</v>
+        <v>140.2440104866082</v>
       </c>
       <c r="T33" t="n">
-        <v>184.4995948549924</v>
+        <v>184.4052762623368</v>
       </c>
       <c r="U33" t="n">
-        <v>216.2723255776618</v>
+        <v>216.2707861011767</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
@@ -25089,49 +25089,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.7524414473259</v>
+        <v>166.7328236376903</v>
       </c>
       <c r="H34" t="n">
-        <v>153.5280889036506</v>
+        <v>153.3536687416174</v>
       </c>
       <c r="I34" t="n">
-        <v>128.3829513838347</v>
+        <v>127.792990344974</v>
       </c>
       <c r="J34" t="n">
-        <v>69.38142423537789</v>
+        <v>67.99444509413848</v>
       </c>
       <c r="K34" t="n">
-        <v>49.27561820117091</v>
+        <v>46.99638540895803</v>
       </c>
       <c r="L34" t="n">
-        <v>38.51192666658817</v>
+        <v>35.5952934049411</v>
       </c>
       <c r="M34" t="n">
-        <v>37.93133099124954</v>
+        <v>34.85615015900174</v>
       </c>
       <c r="N34" t="n">
-        <v>30.58068165169554</v>
+        <v>27.57862174627148</v>
       </c>
       <c r="O34" t="n">
-        <v>44.91730483468676</v>
+        <v>42.1444166145517</v>
       </c>
       <c r="P34" t="n">
-        <v>54.07880848194932</v>
+        <v>51.70612357838122</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.06264625204167</v>
+        <v>81.41992221064316</v>
       </c>
       <c r="R34" t="n">
-        <v>126.5290129463684</v>
+        <v>125.6469248876606</v>
       </c>
       <c r="S34" t="n">
-        <v>203.2405168609909</v>
+        <v>202.898631942159</v>
       </c>
       <c r="T34" t="n">
-        <v>228.8043313043306</v>
+        <v>228.7205097540693</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2922584049637</v>
+        <v>284.2911883426199</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25168,22 +25168,22 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>410.8770831222486</v>
+        <v>410.8333485808955</v>
       </c>
       <c r="H35" t="n">
-        <v>318.5772864942178</v>
+        <v>318.1293901225856</v>
       </c>
       <c r="I35" t="n">
-        <v>129.9973219794369</v>
+        <v>128.3112460739222</v>
       </c>
       <c r="J35" t="n">
-        <v>56.63596026319203</v>
+        <v>52.92404573402577</v>
       </c>
       <c r="K35" t="n">
-        <v>43.24116239470834</v>
+        <v>37.67796473006604</v>
       </c>
       <c r="L35" t="n">
-        <v>23.35894871741084</v>
+        <v>16.45731008283411</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25192,25 +25192,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>7.36877820440435</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>34.60429706616523</v>
+        <v>28.31521535141513</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.5220997126454</v>
+        <v>60.79926126010261</v>
       </c>
       <c r="R35" t="n">
-        <v>108.2096977421496</v>
+        <v>105.462457858879</v>
       </c>
       <c r="S35" t="n">
-        <v>161.0683197856248</v>
+        <v>160.0717189245414</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4495390806929</v>
+        <v>217.2580911259198</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2512138384975</v>
+        <v>252.2477150751892</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -25247,19 +25247,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>126.870927696779</v>
+        <v>126.847527654205</v>
       </c>
       <c r="H36" t="n">
-        <v>93.43070435713413</v>
+        <v>93.20470920911717</v>
       </c>
       <c r="I36" t="n">
-        <v>61.22704274417205</v>
+        <v>60.42138338362111</v>
       </c>
       <c r="J36" t="n">
-        <v>49.17592999067433</v>
+        <v>46.96513912626316</v>
       </c>
       <c r="K36" t="n">
-        <v>19.90727971933319</v>
+        <v>16.12868600246647</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25277,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.93852038328525</v>
+        <v>37.95152547507195</v>
       </c>
       <c r="R36" t="n">
-        <v>82.9567604002111</v>
+        <v>81.50390512531185</v>
       </c>
       <c r="S36" t="n">
-        <v>140.678656014243</v>
+        <v>140.2440104866082</v>
       </c>
       <c r="T36" t="n">
-        <v>184.4995948549924</v>
+        <v>184.4052762623368</v>
       </c>
       <c r="U36" t="n">
-        <v>216.2723255776618</v>
+        <v>216.2707861011767</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -25326,49 +25326,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7524414473259</v>
+        <v>166.7328236376903</v>
       </c>
       <c r="H37" t="n">
-        <v>153.5280889036506</v>
+        <v>153.3536687416174</v>
       </c>
       <c r="I37" t="n">
-        <v>128.3829513838347</v>
+        <v>127.792990344974</v>
       </c>
       <c r="J37" t="n">
-        <v>69.38142423537789</v>
+        <v>67.99444509413848</v>
       </c>
       <c r="K37" t="n">
-        <v>49.27561820117091</v>
+        <v>46.99638540895803</v>
       </c>
       <c r="L37" t="n">
-        <v>38.51192666658817</v>
+        <v>35.5952934049411</v>
       </c>
       <c r="M37" t="n">
-        <v>37.93133099124954</v>
+        <v>34.85615015900174</v>
       </c>
       <c r="N37" t="n">
-        <v>30.58068165169554</v>
+        <v>27.57862174627148</v>
       </c>
       <c r="O37" t="n">
-        <v>44.91730483468676</v>
+        <v>42.1444166145517</v>
       </c>
       <c r="P37" t="n">
-        <v>54.07880848194932</v>
+        <v>51.70612357838122</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.06264625204167</v>
+        <v>81.41992221064316</v>
       </c>
       <c r="R37" t="n">
-        <v>126.5290129463684</v>
+        <v>125.6469248876606</v>
       </c>
       <c r="S37" t="n">
-        <v>203.2405168609909</v>
+        <v>202.898631942159</v>
       </c>
       <c r="T37" t="n">
-        <v>228.8043313043306</v>
+        <v>228.7205097540693</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2922584049637</v>
+        <v>284.2911883426199</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25405,22 +25405,22 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>410.8770831222486</v>
+        <v>410.8333485808955</v>
       </c>
       <c r="H38" t="n">
-        <v>318.5772864942178</v>
+        <v>318.1293901225856</v>
       </c>
       <c r="I38" t="n">
-        <v>129.9973219794369</v>
+        <v>128.3112460739222</v>
       </c>
       <c r="J38" t="n">
-        <v>56.63596026319203</v>
+        <v>52.92404573402577</v>
       </c>
       <c r="K38" t="n">
-        <v>43.24116239470834</v>
+        <v>37.67796473006604</v>
       </c>
       <c r="L38" t="n">
-        <v>23.35894871741084</v>
+        <v>16.45731008283411</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25429,25 +25429,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>7.36877820440435</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>34.60429706616523</v>
+        <v>28.31521535141513</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.5220997126454</v>
+        <v>60.79926126010261</v>
       </c>
       <c r="R38" t="n">
-        <v>108.2096977421496</v>
+        <v>105.462457858879</v>
       </c>
       <c r="S38" t="n">
-        <v>161.0683197856248</v>
+        <v>160.0717189245414</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4495390806929</v>
+        <v>217.2580911259198</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2512138384975</v>
+        <v>252.2477150751892</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
@@ -25484,19 +25484,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>126.870927696779</v>
+        <v>126.847527654205</v>
       </c>
       <c r="H39" t="n">
-        <v>93.43070435713413</v>
+        <v>93.20470920911717</v>
       </c>
       <c r="I39" t="n">
-        <v>61.22704274417205</v>
+        <v>60.42138338362111</v>
       </c>
       <c r="J39" t="n">
-        <v>49.17592999067433</v>
+        <v>46.96513912626316</v>
       </c>
       <c r="K39" t="n">
-        <v>19.90727971933319</v>
+        <v>16.12868600246647</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.93852038328525</v>
+        <v>37.95152547507195</v>
       </c>
       <c r="R39" t="n">
-        <v>82.9567604002111</v>
+        <v>81.50390512531185</v>
       </c>
       <c r="S39" t="n">
-        <v>140.678656014243</v>
+        <v>140.2440104866082</v>
       </c>
       <c r="T39" t="n">
-        <v>184.4995948549924</v>
+        <v>184.4052762623368</v>
       </c>
       <c r="U39" t="n">
-        <v>216.2723255776618</v>
+        <v>216.2707861011767</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -25563,49 +25563,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7524414473259</v>
+        <v>166.7328236376903</v>
       </c>
       <c r="H40" t="n">
-        <v>153.5280889036506</v>
+        <v>153.3536687416174</v>
       </c>
       <c r="I40" t="n">
-        <v>128.3829513838347</v>
+        <v>127.792990344974</v>
       </c>
       <c r="J40" t="n">
-        <v>69.38142423537789</v>
+        <v>67.99444509413848</v>
       </c>
       <c r="K40" t="n">
-        <v>49.27561820117091</v>
+        <v>46.99638540895803</v>
       </c>
       <c r="L40" t="n">
-        <v>38.51192666658817</v>
+        <v>35.5952934049411</v>
       </c>
       <c r="M40" t="n">
-        <v>37.93133099124954</v>
+        <v>34.85615015900174</v>
       </c>
       <c r="N40" t="n">
-        <v>30.58068165169554</v>
+        <v>27.57862174627148</v>
       </c>
       <c r="O40" t="n">
-        <v>44.91730483468676</v>
+        <v>42.1444166145517</v>
       </c>
       <c r="P40" t="n">
-        <v>54.07880848194932</v>
+        <v>51.70612357838122</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.06264625204167</v>
+        <v>81.41992221064316</v>
       </c>
       <c r="R40" t="n">
-        <v>126.5290129463684</v>
+        <v>125.6469248876606</v>
       </c>
       <c r="S40" t="n">
-        <v>203.2405168609909</v>
+        <v>202.898631942159</v>
       </c>
       <c r="T40" t="n">
-        <v>228.8043313043306</v>
+        <v>228.7205097540693</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2922584049637</v>
+        <v>284.2911883426199</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25642,22 +25642,22 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>410.8770831222486</v>
+        <v>410.8333485808955</v>
       </c>
       <c r="H41" t="n">
-        <v>318.5772864942178</v>
+        <v>318.1293901225856</v>
       </c>
       <c r="I41" t="n">
-        <v>129.9973219794369</v>
+        <v>128.3112460739222</v>
       </c>
       <c r="J41" t="n">
-        <v>56.63596026319203</v>
+        <v>52.92404573402577</v>
       </c>
       <c r="K41" t="n">
-        <v>43.24116239470834</v>
+        <v>37.67796473006604</v>
       </c>
       <c r="L41" t="n">
-        <v>23.35894871741084</v>
+        <v>16.45731008283411</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25666,25 +25666,25 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>7.36877820440435</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>34.60429706616523</v>
+        <v>28.31521535141513</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.5220997126454</v>
+        <v>60.79926126010261</v>
       </c>
       <c r="R41" t="n">
-        <v>108.2096977421496</v>
+        <v>105.462457858879</v>
       </c>
       <c r="S41" t="n">
-        <v>161.0683197856248</v>
+        <v>160.0717189245414</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4495390806929</v>
+        <v>217.2580911259198</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2512138384975</v>
+        <v>252.2477150751892</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
@@ -25721,19 +25721,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>126.870927696779</v>
+        <v>126.847527654205</v>
       </c>
       <c r="H42" t="n">
-        <v>93.43070435713413</v>
+        <v>93.20470920911717</v>
       </c>
       <c r="I42" t="n">
-        <v>61.22704274417205</v>
+        <v>60.42138338362111</v>
       </c>
       <c r="J42" t="n">
-        <v>49.17592999067433</v>
+        <v>46.96513912626316</v>
       </c>
       <c r="K42" t="n">
-        <v>19.90727971933319</v>
+        <v>16.12868600246647</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.93852038328525</v>
+        <v>37.95152547507195</v>
       </c>
       <c r="R42" t="n">
-        <v>82.9567604002111</v>
+        <v>81.50390512531185</v>
       </c>
       <c r="S42" t="n">
-        <v>140.678656014243</v>
+        <v>140.2440104866082</v>
       </c>
       <c r="T42" t="n">
-        <v>184.4995948549924</v>
+        <v>184.4052762623368</v>
       </c>
       <c r="U42" t="n">
-        <v>216.2723255776618</v>
+        <v>216.2707861011767</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -25800,49 +25800,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7524414473259</v>
+        <v>166.7328236376903</v>
       </c>
       <c r="H43" t="n">
-        <v>153.5280889036506</v>
+        <v>153.3536687416174</v>
       </c>
       <c r="I43" t="n">
-        <v>128.3829513838347</v>
+        <v>127.792990344974</v>
       </c>
       <c r="J43" t="n">
-        <v>69.38142423537789</v>
+        <v>67.99444509413848</v>
       </c>
       <c r="K43" t="n">
-        <v>49.27561820117091</v>
+        <v>46.99638540895803</v>
       </c>
       <c r="L43" t="n">
-        <v>38.51192666658817</v>
+        <v>35.5952934049411</v>
       </c>
       <c r="M43" t="n">
-        <v>37.93133099124954</v>
+        <v>34.85615015900174</v>
       </c>
       <c r="N43" t="n">
-        <v>30.58068165169554</v>
+        <v>27.57862174627148</v>
       </c>
       <c r="O43" t="n">
-        <v>44.91730483468676</v>
+        <v>42.1444166145517</v>
       </c>
       <c r="P43" t="n">
-        <v>54.07880848194932</v>
+        <v>51.70612357838122</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.06264625204167</v>
+        <v>81.41992221064316</v>
       </c>
       <c r="R43" t="n">
-        <v>126.5290129463684</v>
+        <v>125.6469248876606</v>
       </c>
       <c r="S43" t="n">
-        <v>203.2405168609909</v>
+        <v>202.898631942159</v>
       </c>
       <c r="T43" t="n">
-        <v>228.8043313043306</v>
+        <v>228.7205097540693</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2922584049637</v>
+        <v>284.2911883426199</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
@@ -25882,7 +25882,7 @@
         <v>410.8333485808955</v>
       </c>
       <c r="H44" t="n">
-        <v>318.1293901225855</v>
+        <v>318.1293901225856</v>
       </c>
       <c r="I44" t="n">
         <v>128.3112460739222</v>
@@ -25909,7 +25909,7 @@
         <v>28.31521535141513</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.7992612601026</v>
+        <v>60.79926126010261</v>
       </c>
       <c r="R44" t="n">
         <v>105.462457858879</v>
@@ -25967,10 +25967,10 @@
         <v>60.42138338362111</v>
       </c>
       <c r="J45" t="n">
-        <v>46.96513912626315</v>
+        <v>46.96513912626316</v>
       </c>
       <c r="K45" t="n">
-        <v>16.12868600246645</v>
+        <v>16.12868600246647</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>171912.6339922835</v>
+        <v>202284.9422022667</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>190222.9972071949</v>
+        <v>214010.0205299052</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>190222.9972071949</v>
+        <v>228509.8389429878</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>232131.9483960994</v>
+        <v>238421.4413820701</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>232131.9483960994</v>
+        <v>238421.4413820701</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>232131.9483960994</v>
+        <v>238421.4413820701</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>232131.9483960994</v>
+        <v>238421.4413820701</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>232131.9483960994</v>
+        <v>238421.4413820701</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>232131.9483960994</v>
+        <v>238421.4413820701</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>232131.9483960994</v>
+        <v>238421.4413820701</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>232131.9483960994</v>
+        <v>238421.4413820701</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>232131.9483960994</v>
+        <v>238421.4413820701</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>232131.9483960994</v>
+        <v>238421.4413820701</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>232131.9483960994</v>
+        <v>238421.4413820701</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32051.50803245966</v>
+        <v>37714.14176652432</v>
       </c>
       <c r="C2" t="n">
-        <v>35465.30456405331</v>
+        <v>39900.17331913488</v>
       </c>
       <c r="D2" t="n">
-        <v>35465.30456405331</v>
+        <v>42603.52929445537</v>
       </c>
       <c r="E2" t="n">
-        <v>43278.83783656092</v>
+        <v>44451.45517292836</v>
       </c>
       <c r="F2" t="n">
-        <v>43278.83783656094</v>
+        <v>44451.45517292835</v>
       </c>
       <c r="G2" t="n">
-        <v>43278.83783656094</v>
+        <v>44451.45517292835</v>
       </c>
       <c r="H2" t="n">
-        <v>43278.83783656094</v>
+        <v>44451.45517292834</v>
       </c>
       <c r="I2" t="n">
-        <v>43278.83783656094</v>
+        <v>44451.45517292835</v>
       </c>
       <c r="J2" t="n">
-        <v>43278.83783656095</v>
+        <v>44451.45517292836</v>
       </c>
       <c r="K2" t="n">
-        <v>43278.83783656092</v>
+        <v>44451.45517292836</v>
       </c>
       <c r="L2" t="n">
-        <v>43278.83783656094</v>
+        <v>44451.45517292835</v>
       </c>
       <c r="M2" t="n">
-        <v>43278.83783656094</v>
+        <v>44451.45517292835</v>
       </c>
       <c r="N2" t="n">
-        <v>43278.83783656092</v>
+        <v>44451.45517292835</v>
       </c>
       <c r="O2" t="n">
-        <v>43278.83783656092</v>
+        <v>44451.45517292836</v>
       </c>
       <c r="P2" t="n">
-        <v>44451.45517292834</v>
+        <v>44451.45517292835</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>183817.6412139467</v>
+        <v>218154.5359296708</v>
       </c>
       <c r="C3" t="n">
-        <v>19248.56727753535</v>
+        <v>13343.96699226152</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>16107.83078622977</v>
       </c>
       <c r="E3" t="n">
-        <v>42770.35670601614</v>
+        <v>12981.21471837038</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7240.779447535443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37786.14142530667</v>
+        <v>38562.95151898825</v>
       </c>
       <c r="C5" t="n">
-        <v>38246.95610246559</v>
+        <v>38882.40884549456</v>
       </c>
       <c r="D5" t="n">
-        <v>38246.95610246559</v>
+        <v>39292.43333264658</v>
       </c>
       <c r="E5" t="n">
-        <v>5779.911609715572</v>
+        <v>6017.073093838006</v>
       </c>
       <c r="F5" t="n">
-        <v>5779.911609715572</v>
+        <v>6017.073093838006</v>
       </c>
       <c r="G5" t="n">
-        <v>5779.911609715572</v>
+        <v>6017.073093838006</v>
       </c>
       <c r="H5" t="n">
-        <v>5779.911609715572</v>
+        <v>6017.073093838006</v>
       </c>
       <c r="I5" t="n">
-        <v>5779.911609715572</v>
+        <v>6017.073093838006</v>
       </c>
       <c r="J5" t="n">
-        <v>5779.911609715572</v>
+        <v>6017.073093838006</v>
       </c>
       <c r="K5" t="n">
-        <v>5779.911609715572</v>
+        <v>6017.073093838006</v>
       </c>
       <c r="L5" t="n">
-        <v>5779.911609715572</v>
+        <v>6017.073093838006</v>
       </c>
       <c r="M5" t="n">
-        <v>5779.911609715572</v>
+        <v>6017.073093838006</v>
       </c>
       <c r="N5" t="n">
-        <v>5779.911609715572</v>
+        <v>6017.073093838006</v>
       </c>
       <c r="O5" t="n">
-        <v>5779.911609715572</v>
+        <v>6017.073093838006</v>
       </c>
       <c r="P5" t="n">
         <v>6017.073093838006</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-189552.2746067938</v>
+        <v>-234765.388852078</v>
       </c>
       <c r="C6" t="n">
-        <v>-22030.21881594763</v>
+        <v>-27889.51554741804</v>
       </c>
       <c r="D6" t="n">
-        <v>-2781.651538412283</v>
+        <v>-28114.28821909776</v>
       </c>
       <c r="E6" t="n">
-        <v>-5271.430479170791</v>
+        <v>10303.60722772254</v>
       </c>
       <c r="F6" t="n">
-        <v>37498.92622684537</v>
+        <v>23284.82194609292</v>
       </c>
       <c r="G6" t="n">
-        <v>37498.92622684537</v>
+        <v>23284.82194609292</v>
       </c>
       <c r="H6" t="n">
-        <v>37498.92622684537</v>
+        <v>23284.82194609291</v>
       </c>
       <c r="I6" t="n">
-        <v>37498.92622684537</v>
+        <v>23284.82194609292</v>
       </c>
       <c r="J6" t="n">
-        <v>37498.92622684537</v>
+        <v>23284.82194609292</v>
       </c>
       <c r="K6" t="n">
-        <v>37498.92622684535</v>
+        <v>23284.82194609292</v>
       </c>
       <c r="L6" t="n">
-        <v>37498.92622684537</v>
+        <v>23284.82194609292</v>
       </c>
       <c r="M6" t="n">
-        <v>37498.92622684537</v>
+        <v>23284.82194609292</v>
       </c>
       <c r="N6" t="n">
-        <v>37498.92622684535</v>
+        <v>23284.82194609292</v>
       </c>
       <c r="O6" t="n">
-        <v>37498.92622684535</v>
+        <v>23284.82194609292</v>
       </c>
       <c r="P6" t="n">
-        <v>31193.60263155489</v>
+        <v>23284.82194609292</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.7587809773703</v>
+        <v>226.3922715132224</v>
       </c>
       <c r="C3" t="n">
-        <v>211.8970689204402</v>
+        <v>241.0462773162643</v>
       </c>
       <c r="D3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="E3" t="n">
-        <v>265.133560078696</v>
+        <v>276.0125272402755</v>
       </c>
       <c r="F3" t="n">
-        <v>265.133560078696</v>
+        <v>276.0125272402755</v>
       </c>
       <c r="G3" t="n">
-        <v>265.133560078696</v>
+        <v>276.0125272402755</v>
       </c>
       <c r="H3" t="n">
-        <v>265.133560078696</v>
+        <v>276.0125272402755</v>
       </c>
       <c r="I3" t="n">
-        <v>265.133560078696</v>
+        <v>276.0125272402755</v>
       </c>
       <c r="J3" t="n">
-        <v>265.133560078696</v>
+        <v>276.0125272402755</v>
       </c>
       <c r="K3" t="n">
-        <v>265.133560078696</v>
+        <v>276.0125272402755</v>
       </c>
       <c r="L3" t="n">
-        <v>265.133560078696</v>
+        <v>276.0125272402755</v>
       </c>
       <c r="M3" t="n">
-        <v>265.133560078696</v>
+        <v>276.0125272402755</v>
       </c>
       <c r="N3" t="n">
-        <v>265.133560078696</v>
+        <v>276.0125272402755</v>
       </c>
       <c r="O3" t="n">
-        <v>265.133560078696</v>
+        <v>276.0125272402755</v>
       </c>
       <c r="P3" t="n">
         <v>276.0125272402755</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.7587809773703</v>
+        <v>226.3922715132224</v>
       </c>
       <c r="C3" t="n">
-        <v>21.13828794306991</v>
+        <v>14.65400580304185</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>18.80846271339536</v>
       </c>
       <c r="E3" t="n">
-        <v>53.23649115825575</v>
+        <v>16.15778721061582</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>10.87896716157951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7668694712658096</v>
+        <v>0.9101196844752654</v>
       </c>
       <c r="H2" t="n">
-        <v>7.853701972600975</v>
+        <v>9.320763218632313</v>
       </c>
       <c r="I2" t="n">
-        <v>29.56473529097515</v>
+        <v>35.0873891357327</v>
       </c>
       <c r="J2" t="n">
-        <v>65.08708778684657</v>
+        <v>77.24527057023262</v>
       </c>
       <c r="K2" t="n">
-        <v>97.54867250552832</v>
+        <v>115.7706368140706</v>
       </c>
       <c r="L2" t="n">
-        <v>121.0177540867794</v>
+        <v>143.6237121078306</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6555690464027</v>
+        <v>159.8090530466175</v>
       </c>
       <c r="N2" t="n">
-        <v>136.8344369316367</v>
+        <v>162.3949306001329</v>
       </c>
       <c r="O2" t="n">
-        <v>129.2088786267373</v>
+        <v>153.344927987632</v>
       </c>
       <c r="P2" t="n">
-        <v>110.2767885548626</v>
+        <v>130.8763482771488</v>
       </c>
       <c r="Q2" t="n">
-        <v>82.81327561515576</v>
+        <v>98.28268707687837</v>
       </c>
       <c r="R2" t="n">
-        <v>48.17186442440096</v>
+        <v>57.17030562991944</v>
       </c>
       <c r="S2" t="n">
-        <v>17.47503807646966</v>
+        <v>20.73935230998013</v>
       </c>
       <c r="T2" t="n">
-        <v>3.356971110466083</v>
+        <v>3.984048918790476</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06134955770126475</v>
+        <v>0.07280957475802122</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4103113402154758</v>
+        <v>0.4869569613680633</v>
       </c>
       <c r="H3" t="n">
-        <v>3.962743733133674</v>
+        <v>4.702979074265244</v>
       </c>
       <c r="I3" t="n">
-        <v>14.12694745917318</v>
+        <v>16.76584274885657</v>
       </c>
       <c r="J3" t="n">
-        <v>38.76542359465599</v>
+        <v>46.00675396855024</v>
       </c>
       <c r="K3" t="n">
-        <v>66.25628338909286</v>
+        <v>78.63287038021048</v>
       </c>
       <c r="L3" t="n">
-        <v>89.08974954985582</v>
+        <v>105.7315981251139</v>
       </c>
       <c r="M3" t="n">
-        <v>103.9635356326668</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>97.62350558188119</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>78.35146986974291</v>
+        <v>92.9874218598366</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.37588265627722</v>
+        <v>62.15962896340402</v>
       </c>
       <c r="R3" t="n">
-        <v>25.47529531618542</v>
+        <v>30.23404712774696</v>
       </c>
       <c r="S3" t="n">
-        <v>7.621353183388328</v>
+        <v>9.045011979797135</v>
       </c>
       <c r="T3" t="n">
-        <v>1.653842638850974</v>
+        <v>1.962778278496711</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0269941671194392</v>
+        <v>0.03203664219526734</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3439912443854218</v>
+        <v>0.4082483584664666</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05839488189948</v>
+        <v>3.629699041638224</v>
       </c>
       <c r="I4" t="n">
-        <v>10.34475487660887</v>
+        <v>12.27714154370065</v>
       </c>
       <c r="J4" t="n">
-        <v>24.32018097804932</v>
+        <v>28.86315894357919</v>
       </c>
       <c r="K4" t="n">
-        <v>39.96552821132445</v>
+        <v>47.43103655637675</v>
       </c>
       <c r="L4" t="n">
-        <v>51.1421164607199</v>
+        <v>60.6953968578236</v>
       </c>
       <c r="M4" t="n">
-        <v>53.92219115398024</v>
+        <v>63.9947858639753</v>
       </c>
       <c r="N4" t="n">
-        <v>52.6400419703619</v>
+        <v>62.47313289150943</v>
       </c>
       <c r="O4" t="n">
-        <v>48.621598797314</v>
+        <v>57.70404979487842</v>
       </c>
       <c r="P4" t="n">
-        <v>41.60417741185136</v>
+        <v>49.37578328216245</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.80457592758292</v>
+        <v>34.18523299849659</v>
       </c>
       <c r="R4" t="n">
-        <v>15.46709722482087</v>
+        <v>18.35633073613767</v>
       </c>
       <c r="S4" t="n">
-        <v>5.994829231698668</v>
+        <v>7.114655483456511</v>
       </c>
       <c r="T4" t="n">
-        <v>1.469780771464984</v>
+        <v>1.744333895265811</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01876315878465939</v>
+        <v>0.02226809227998911</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8518475132480001</v>
+        <v>0.9690302605678959</v>
       </c>
       <c r="H5" t="n">
-        <v>8.723983345051083</v>
+        <v>9.924081156040966</v>
       </c>
       <c r="I5" t="n">
-        <v>32.84085125449356</v>
+        <v>37.35853912054384</v>
       </c>
       <c r="J5" t="n">
-        <v>72.29949287753253</v>
+        <v>82.24523207787453</v>
       </c>
       <c r="K5" t="n">
-        <v>108.3581981133204</v>
+        <v>123.2642830077136</v>
       </c>
       <c r="L5" t="n">
-        <v>134.4279264468839</v>
+        <v>152.9202428445683</v>
       </c>
       <c r="M5" t="n">
-        <v>149.576969660608</v>
+        <v>170.1532347409427</v>
       </c>
       <c r="N5" t="n">
-        <v>151.9972814076239</v>
+        <v>172.9064919687812</v>
       </c>
       <c r="O5" t="n">
-        <v>143.5267226977641</v>
+        <v>163.2706973152592</v>
       </c>
       <c r="P5" t="n">
-        <v>122.4967372144541</v>
+        <v>139.3477627574892</v>
       </c>
       <c r="Q5" t="n">
-        <v>91.98994814626005</v>
+        <v>104.6443665509014</v>
       </c>
       <c r="R5" t="n">
-        <v>53.50986635406473</v>
+        <v>60.87084710539814</v>
       </c>
       <c r="S5" t="n">
-        <v>19.41147520813882</v>
+        <v>22.08177706269095</v>
       </c>
       <c r="T5" t="n">
-        <v>3.728962489243122</v>
+        <v>4.241929965635967</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06814780105984</v>
+        <v>0.07752242084543165</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5184768983783798</v>
       </c>
       <c r="H6" t="n">
-        <v>4.401861752479334</v>
+        <v>5.007395308022774</v>
       </c>
       <c r="I6" t="n">
-        <v>15.69237727382505</v>
+        <v>17.85106865030825</v>
       </c>
       <c r="J6" t="n">
-        <v>43.0610826567472</v>
+        <v>48.98469678933632</v>
       </c>
       <c r="K6" t="n">
-        <v>73.59824892871555</v>
+        <v>83.72264898068777</v>
       </c>
       <c r="L6" t="n">
-        <v>98.96192827270181</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
         <v>115.4839025616399</v>
@@ -31381,25 +31381,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
-        <v>87.03372251564269</v>
+        <v>99.00634737542939</v>
       </c>
       <c r="Q6" t="n">
-        <v>58.1797386213254</v>
+        <v>66.18312127370336</v>
       </c>
       <c r="R6" t="n">
-        <v>28.29825384563918</v>
+        <v>32.19104812914188</v>
       </c>
       <c r="S6" t="n">
-        <v>8.465887612057205</v>
+        <v>9.630480985229987</v>
       </c>
       <c r="T6" t="n">
-        <v>1.837107606961174</v>
+        <v>2.089825743902328</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03411032226173553</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4346736148326077</v>
       </c>
       <c r="H7" t="n">
-        <v>3.397300547609682</v>
+        <v>3.864643593693551</v>
       </c>
       <c r="I7" t="n">
-        <v>11.49107383588223</v>
+        <v>13.07182107151151</v>
       </c>
       <c r="J7" t="n">
-        <v>27.01513942613546</v>
+        <v>30.73142456866536</v>
       </c>
       <c r="K7" t="n">
-        <v>44.39417280005286</v>
+        <v>50.50117088691568</v>
       </c>
       <c r="L7" t="n">
-        <v>56.80925680532589</v>
+        <v>64.62411179065879</v>
       </c>
       <c r="M7" t="n">
-        <v>59.89739605565818</v>
+        <v>68.13706491416957</v>
       </c>
       <c r="N7" t="n">
-        <v>58.47316985471758</v>
+        <v>66.516917804339</v>
       </c>
       <c r="O7" t="n">
-        <v>54.00943651762304</v>
+        <v>61.43913966743079</v>
       </c>
       <c r="P7" t="n">
-        <v>46.21440335930385</v>
+        <v>52.57179792484555</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.99645740698647</v>
+        <v>36.39798787475591</v>
       </c>
       <c r="R7" t="n">
-        <v>17.18103119476224</v>
+        <v>19.5445063542007</v>
       </c>
       <c r="S7" t="n">
-        <v>6.659125920007929</v>
+        <v>7.575175633037351</v>
       </c>
       <c r="T7" t="n">
-        <v>1.632649547419785</v>
+        <v>1.857241808830232</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02370946989996045</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H8" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I8" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J8" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K8" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L8" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M8" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N8" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P8" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q8" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R8" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S8" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T8" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H9" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I9" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J9" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K9" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L9" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
         <v>115.4839025616399</v>
@@ -31618,25 +31618,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q9" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R9" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S9" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T9" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H10" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I10" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J10" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K10" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L10" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M10" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N10" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O10" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P10" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R10" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S10" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T10" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.06586355810531</v>
+        <v>1.109598099458393</v>
       </c>
       <c r="H11" t="n">
-        <v>10.91577516444601</v>
+        <v>11.36367153607827</v>
       </c>
       <c r="I11" t="n">
-        <v>41.09170482385499</v>
+        <v>42.77778072936974</v>
       </c>
       <c r="J11" t="n">
-        <v>90.46383716474061</v>
+        <v>94.17575169390686</v>
       </c>
       <c r="K11" t="n">
-        <v>135.5818415793384</v>
+        <v>141.1450392439807</v>
       </c>
       <c r="L11" t="n">
-        <v>168.2012634457038</v>
+        <v>175.1029020802805</v>
       </c>
       <c r="M11" t="n">
         <v>187.1563144971591</v>
@@ -31776,25 +31776,25 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O11" t="n">
-        <v>179.5860185757161</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P11" t="n">
-        <v>153.2725119849913</v>
+        <v>159.5615936997414</v>
       </c>
       <c r="Q11" t="n">
-        <v>115.1012733103448</v>
+        <v>119.8241117628876</v>
       </c>
       <c r="R11" t="n">
-        <v>66.95355173183272</v>
+        <v>69.70079161510334</v>
       </c>
       <c r="S11" t="n">
-        <v>24.28836583032476</v>
+        <v>25.28496669140815</v>
       </c>
       <c r="T11" t="n">
-        <v>4.665817725605995</v>
+        <v>4.857265680379117</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.08876784795667142</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5702872801692707</v>
+        <v>0.593687322743234</v>
       </c>
       <c r="H12" t="n">
-        <v>5.507774521634798</v>
+        <v>5.733769669651761</v>
       </c>
       <c r="I12" t="n">
-        <v>19.63489100582796</v>
+        <v>20.44055036637889</v>
       </c>
       <c r="J12" t="n">
-        <v>53.87964167599237</v>
+        <v>56.09043254040353</v>
       </c>
       <c r="K12" t="n">
-        <v>92.08888944733349</v>
+        <v>95.86748316420021</v>
       </c>
       <c r="L12" t="n">
         <v>112.5754335711478</v>
@@ -31861,19 +31861,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q12" t="n">
-        <v>72.79667106160726</v>
+        <v>75.78366596982055</v>
       </c>
       <c r="R12" t="n">
-        <v>35.40783657050964</v>
+        <v>36.86069184540888</v>
       </c>
       <c r="S12" t="n">
-        <v>10.59283610314412</v>
+        <v>11.02748163077892</v>
       </c>
       <c r="T12" t="n">
-        <v>2.298657940682278</v>
+        <v>2.392976533337859</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.03905837649626541</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4781096985025665</v>
+        <v>0.4977275081382016</v>
       </c>
       <c r="H13" t="n">
-        <v>4.250829864868276</v>
+        <v>4.425250026901469</v>
       </c>
       <c r="I13" t="n">
-        <v>14.37806256951355</v>
+        <v>14.96802360837428</v>
       </c>
       <c r="J13" t="n">
-        <v>33.80235568413144</v>
+        <v>35.18933482537085</v>
       </c>
       <c r="K13" t="n">
-        <v>55.54765406238907</v>
+        <v>57.82688685460195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.08187281191793</v>
+        <v>73.998506073565</v>
       </c>
       <c r="M13" t="n">
-        <v>74.94586846617958</v>
+        <v>78.02104929842736</v>
       </c>
       <c r="N13" t="n">
-        <v>73.16382322630642</v>
+        <v>76.16588313173048</v>
       </c>
       <c r="O13" t="n">
-        <v>67.57863265743551</v>
+        <v>70.35152087757056</v>
       </c>
       <c r="P13" t="n">
-        <v>57.8251948079831</v>
+        <v>60.1978797115512</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.03516757188309</v>
+        <v>41.6778916132816</v>
       </c>
       <c r="R13" t="n">
-        <v>21.49755062539721</v>
+        <v>22.37963868410495</v>
       </c>
       <c r="S13" t="n">
-        <v>8.332148109358359</v>
+        <v>8.674033028190292</v>
       </c>
       <c r="T13" t="n">
-        <v>2.042832348147329</v>
+        <v>2.126653898408679</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02607871082741275</v>
+        <v>0.02714877317117466</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.06586355810531</v>
+        <v>1.109598099458393</v>
       </c>
       <c r="H14" t="n">
-        <v>10.915775164446</v>
+        <v>11.36367153607827</v>
       </c>
       <c r="I14" t="n">
-        <v>41.09170482385499</v>
+        <v>42.77778072936974</v>
       </c>
       <c r="J14" t="n">
-        <v>90.4638371647406</v>
+        <v>94.17575169390686</v>
       </c>
       <c r="K14" t="n">
-        <v>135.5818415793384</v>
+        <v>141.1450392439807</v>
       </c>
       <c r="L14" t="n">
-        <v>168.2012634457038</v>
+        <v>175.1029020802805</v>
       </c>
       <c r="M14" t="n">
         <v>187.1563144971591</v>
@@ -32013,25 +32013,25 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O14" t="n">
-        <v>179.5860185757161</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P14" t="n">
-        <v>153.2725119849913</v>
+        <v>159.5615936997414</v>
       </c>
       <c r="Q14" t="n">
-        <v>115.1012733103448</v>
+        <v>119.8241117628876</v>
       </c>
       <c r="R14" t="n">
-        <v>66.9535517318327</v>
+        <v>69.70079161510334</v>
       </c>
       <c r="S14" t="n">
-        <v>24.28836583032476</v>
+        <v>25.28496669140815</v>
       </c>
       <c r="T14" t="n">
-        <v>4.665817725605995</v>
+        <v>4.857265680379117</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.08876784795667142</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.593687322743234</v>
       </c>
       <c r="H15" t="n">
-        <v>5.507774521634798</v>
+        <v>5.733769669651761</v>
       </c>
       <c r="I15" t="n">
-        <v>19.63489100582796</v>
+        <v>20.44055036637889</v>
       </c>
       <c r="J15" t="n">
-        <v>53.87964167599236</v>
+        <v>56.09043254040353</v>
       </c>
       <c r="K15" t="n">
-        <v>92.08888944733349</v>
+        <v>95.86748316420021</v>
       </c>
       <c r="L15" t="n">
         <v>112.5754335711478</v>
@@ -32098,19 +32098,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q15" t="n">
-        <v>72.79667106160724</v>
+        <v>75.78366596982055</v>
       </c>
       <c r="R15" t="n">
-        <v>35.40783657050964</v>
+        <v>36.86069184540888</v>
       </c>
       <c r="S15" t="n">
-        <v>10.59283610314412</v>
+        <v>11.02748163077892</v>
       </c>
       <c r="T15" t="n">
-        <v>2.298657940682278</v>
+        <v>2.392976533337859</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.03905837649626541</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.4977275081382016</v>
       </c>
       <c r="H16" t="n">
-        <v>4.250829864868275</v>
+        <v>4.425250026901469</v>
       </c>
       <c r="I16" t="n">
-        <v>14.37806256951355</v>
+        <v>14.96802360837428</v>
       </c>
       <c r="J16" t="n">
-        <v>33.80235568413144</v>
+        <v>35.18933482537085</v>
       </c>
       <c r="K16" t="n">
-        <v>55.54765406238907</v>
+        <v>57.82688685460195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.08187281191793</v>
+        <v>73.998506073565</v>
       </c>
       <c r="M16" t="n">
-        <v>74.94586846617956</v>
+        <v>78.02104929842736</v>
       </c>
       <c r="N16" t="n">
-        <v>73.16382322630642</v>
+        <v>76.16588313173048</v>
       </c>
       <c r="O16" t="n">
-        <v>67.57863265743551</v>
+        <v>70.35152087757056</v>
       </c>
       <c r="P16" t="n">
-        <v>57.8251948079831</v>
+        <v>60.1978797115512</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.03516757188309</v>
+        <v>41.6778916132816</v>
       </c>
       <c r="R16" t="n">
-        <v>21.49755062539721</v>
+        <v>22.37963868410495</v>
       </c>
       <c r="S16" t="n">
-        <v>8.332148109358359</v>
+        <v>8.674033028190292</v>
       </c>
       <c r="T16" t="n">
-        <v>2.042832348147329</v>
+        <v>2.126653898408679</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.02714877317117466</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.06586355810531</v>
+        <v>1.109598099458393</v>
       </c>
       <c r="H17" t="n">
-        <v>10.915775164446</v>
+        <v>11.36367153607827</v>
       </c>
       <c r="I17" t="n">
-        <v>41.09170482385499</v>
+        <v>42.77778072936974</v>
       </c>
       <c r="J17" t="n">
-        <v>90.4638371647406</v>
+        <v>94.17575169390686</v>
       </c>
       <c r="K17" t="n">
-        <v>135.5818415793384</v>
+        <v>141.1450392439807</v>
       </c>
       <c r="L17" t="n">
-        <v>168.2012634457038</v>
+        <v>175.1029020802805</v>
       </c>
       <c r="M17" t="n">
         <v>187.1563144971591</v>
@@ -32250,25 +32250,25 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O17" t="n">
-        <v>179.5860185757161</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P17" t="n">
-        <v>153.2725119849913</v>
+        <v>159.5615936997414</v>
       </c>
       <c r="Q17" t="n">
-        <v>115.1012733103448</v>
+        <v>119.8241117628876</v>
       </c>
       <c r="R17" t="n">
-        <v>66.9535517318327</v>
+        <v>69.70079161510334</v>
       </c>
       <c r="S17" t="n">
-        <v>24.28836583032476</v>
+        <v>25.28496669140815</v>
       </c>
       <c r="T17" t="n">
-        <v>4.665817725605995</v>
+        <v>4.857265680379117</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.08876784795667142</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.593687322743234</v>
       </c>
       <c r="H18" t="n">
-        <v>5.507774521634798</v>
+        <v>5.733769669651761</v>
       </c>
       <c r="I18" t="n">
-        <v>19.63489100582796</v>
+        <v>20.44055036637889</v>
       </c>
       <c r="J18" t="n">
-        <v>53.87964167599236</v>
+        <v>56.09043254040353</v>
       </c>
       <c r="K18" t="n">
-        <v>92.08888944733349</v>
+        <v>95.86748316420021</v>
       </c>
       <c r="L18" t="n">
         <v>112.5754335711478</v>
@@ -32335,19 +32335,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q18" t="n">
-        <v>72.79667106160724</v>
+        <v>75.78366596982055</v>
       </c>
       <c r="R18" t="n">
-        <v>35.40783657050964</v>
+        <v>36.86069184540888</v>
       </c>
       <c r="S18" t="n">
-        <v>10.59283610314412</v>
+        <v>11.02748163077892</v>
       </c>
       <c r="T18" t="n">
-        <v>2.298657940682278</v>
+        <v>2.392976533337859</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.03905837649626541</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.4977275081382016</v>
       </c>
       <c r="H19" t="n">
-        <v>4.250829864868275</v>
+        <v>4.425250026901469</v>
       </c>
       <c r="I19" t="n">
-        <v>14.37806256951355</v>
+        <v>14.96802360837428</v>
       </c>
       <c r="J19" t="n">
-        <v>33.80235568413144</v>
+        <v>35.18933482537085</v>
       </c>
       <c r="K19" t="n">
-        <v>55.54765406238907</v>
+        <v>57.82688685460195</v>
       </c>
       <c r="L19" t="n">
-        <v>71.08187281191793</v>
+        <v>73.998506073565</v>
       </c>
       <c r="M19" t="n">
-        <v>74.94586846617956</v>
+        <v>78.02104929842736</v>
       </c>
       <c r="N19" t="n">
-        <v>73.16382322630642</v>
+        <v>76.16588313173048</v>
       </c>
       <c r="O19" t="n">
-        <v>67.57863265743551</v>
+        <v>70.35152087757056</v>
       </c>
       <c r="P19" t="n">
-        <v>57.8251948079831</v>
+        <v>60.1978797115512</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.03516757188309</v>
+        <v>41.6778916132816</v>
       </c>
       <c r="R19" t="n">
-        <v>21.49755062539721</v>
+        <v>22.37963868410495</v>
       </c>
       <c r="S19" t="n">
-        <v>8.332148109358359</v>
+        <v>8.674033028190292</v>
       </c>
       <c r="T19" t="n">
-        <v>2.042832348147329</v>
+        <v>2.126653898408679</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.02714877317117466</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.06586355810531</v>
+        <v>1.109598099458393</v>
       </c>
       <c r="H20" t="n">
-        <v>10.915775164446</v>
+        <v>11.36367153607827</v>
       </c>
       <c r="I20" t="n">
-        <v>41.09170482385499</v>
+        <v>42.77778072936974</v>
       </c>
       <c r="J20" t="n">
-        <v>90.4638371647406</v>
+        <v>94.17575169390686</v>
       </c>
       <c r="K20" t="n">
-        <v>135.5818415793384</v>
+        <v>141.1450392439807</v>
       </c>
       <c r="L20" t="n">
-        <v>168.2012634457038</v>
+        <v>175.1029020802805</v>
       </c>
       <c r="M20" t="n">
         <v>187.1563144971591</v>
@@ -32487,25 +32487,25 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O20" t="n">
-        <v>179.5860185757161</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P20" t="n">
-        <v>153.2725119849913</v>
+        <v>159.5615936997414</v>
       </c>
       <c r="Q20" t="n">
-        <v>115.1012733103448</v>
+        <v>119.8241117628876</v>
       </c>
       <c r="R20" t="n">
-        <v>66.9535517318327</v>
+        <v>69.70079161510334</v>
       </c>
       <c r="S20" t="n">
-        <v>24.28836583032476</v>
+        <v>25.28496669140815</v>
       </c>
       <c r="T20" t="n">
-        <v>4.665817725605995</v>
+        <v>4.857265680379118</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.08876784795667142</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.5936873227432341</v>
       </c>
       <c r="H21" t="n">
-        <v>5.507774521634798</v>
+        <v>5.733769669651761</v>
       </c>
       <c r="I21" t="n">
-        <v>19.63489100582796</v>
+        <v>20.44055036637889</v>
       </c>
       <c r="J21" t="n">
-        <v>53.87964167599236</v>
+        <v>56.09043254040354</v>
       </c>
       <c r="K21" t="n">
-        <v>92.08888944733349</v>
+        <v>95.86748316420022</v>
       </c>
       <c r="L21" t="n">
         <v>112.5754335711478</v>
@@ -32572,19 +32572,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q21" t="n">
-        <v>72.79667106160724</v>
+        <v>75.78366596982055</v>
       </c>
       <c r="R21" t="n">
-        <v>35.40783657050964</v>
+        <v>36.86069184540888</v>
       </c>
       <c r="S21" t="n">
-        <v>10.59283610314412</v>
+        <v>11.02748163077892</v>
       </c>
       <c r="T21" t="n">
-        <v>2.298657940682278</v>
+        <v>2.392976533337859</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.03905837649626542</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.4977275081382016</v>
       </c>
       <c r="H22" t="n">
-        <v>4.250829864868275</v>
+        <v>4.425250026901469</v>
       </c>
       <c r="I22" t="n">
-        <v>14.37806256951355</v>
+        <v>14.96802360837428</v>
       </c>
       <c r="J22" t="n">
-        <v>33.80235568413144</v>
+        <v>35.18933482537086</v>
       </c>
       <c r="K22" t="n">
-        <v>55.54765406238907</v>
+        <v>57.82688685460196</v>
       </c>
       <c r="L22" t="n">
-        <v>71.08187281191793</v>
+        <v>73.998506073565</v>
       </c>
       <c r="M22" t="n">
-        <v>74.94586846617956</v>
+        <v>78.02104929842736</v>
       </c>
       <c r="N22" t="n">
-        <v>73.16382322630642</v>
+        <v>76.16588313173048</v>
       </c>
       <c r="O22" t="n">
-        <v>67.57863265743551</v>
+        <v>70.35152087757056</v>
       </c>
       <c r="P22" t="n">
-        <v>57.8251948079831</v>
+        <v>60.1978797115512</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.03516757188309</v>
+        <v>41.6778916132816</v>
       </c>
       <c r="R22" t="n">
-        <v>21.49755062539721</v>
+        <v>22.37963868410495</v>
       </c>
       <c r="S22" t="n">
-        <v>8.332148109358359</v>
+        <v>8.674033028190292</v>
       </c>
       <c r="T22" t="n">
-        <v>2.042832348147329</v>
+        <v>2.126653898408679</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.02714877317117467</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.06586355810531</v>
+        <v>1.109598099458393</v>
       </c>
       <c r="H23" t="n">
-        <v>10.915775164446</v>
+        <v>11.36367153607827</v>
       </c>
       <c r="I23" t="n">
-        <v>41.09170482385499</v>
+        <v>42.77778072936974</v>
       </c>
       <c r="J23" t="n">
-        <v>90.4638371647406</v>
+        <v>94.17575169390686</v>
       </c>
       <c r="K23" t="n">
-        <v>135.5818415793384</v>
+        <v>141.1450392439807</v>
       </c>
       <c r="L23" t="n">
-        <v>168.2012634457038</v>
+        <v>175.1029020802805</v>
       </c>
       <c r="M23" t="n">
         <v>187.1563144971591</v>
@@ -32724,25 +32724,25 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O23" t="n">
-        <v>179.5860185757161</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P23" t="n">
-        <v>153.2725119849913</v>
+        <v>159.5615936997414</v>
       </c>
       <c r="Q23" t="n">
-        <v>115.1012733103448</v>
+        <v>119.8241117628876</v>
       </c>
       <c r="R23" t="n">
-        <v>66.9535517318327</v>
+        <v>69.70079161510334</v>
       </c>
       <c r="S23" t="n">
-        <v>24.28836583032476</v>
+        <v>25.28496669140815</v>
       </c>
       <c r="T23" t="n">
-        <v>4.665817725605995</v>
+        <v>4.857265680379117</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.08876784795667142</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.593687322743234</v>
       </c>
       <c r="H24" t="n">
-        <v>5.507774521634798</v>
+        <v>5.733769669651761</v>
       </c>
       <c r="I24" t="n">
-        <v>19.63489100582796</v>
+        <v>20.44055036637889</v>
       </c>
       <c r="J24" t="n">
-        <v>53.87964167599236</v>
+        <v>56.09043254040353</v>
       </c>
       <c r="K24" t="n">
-        <v>92.08888944733349</v>
+        <v>95.86748316420021</v>
       </c>
       <c r="L24" t="n">
         <v>112.5754335711478</v>
@@ -32809,19 +32809,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q24" t="n">
-        <v>72.79667106160724</v>
+        <v>75.78366596982055</v>
       </c>
       <c r="R24" t="n">
-        <v>35.40783657050964</v>
+        <v>36.86069184540888</v>
       </c>
       <c r="S24" t="n">
-        <v>10.59283610314412</v>
+        <v>11.02748163077892</v>
       </c>
       <c r="T24" t="n">
-        <v>2.298657940682278</v>
+        <v>2.392976533337859</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.03905837649626541</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.4977275081382016</v>
       </c>
       <c r="H25" t="n">
-        <v>4.250829864868275</v>
+        <v>4.425250026901469</v>
       </c>
       <c r="I25" t="n">
-        <v>14.37806256951355</v>
+        <v>14.96802360837428</v>
       </c>
       <c r="J25" t="n">
-        <v>33.80235568413144</v>
+        <v>35.18933482537085</v>
       </c>
       <c r="K25" t="n">
-        <v>55.54765406238907</v>
+        <v>57.82688685460195</v>
       </c>
       <c r="L25" t="n">
-        <v>71.08187281191793</v>
+        <v>73.998506073565</v>
       </c>
       <c r="M25" t="n">
-        <v>74.94586846617956</v>
+        <v>78.02104929842736</v>
       </c>
       <c r="N25" t="n">
-        <v>73.16382322630642</v>
+        <v>76.16588313173048</v>
       </c>
       <c r="O25" t="n">
-        <v>67.57863265743551</v>
+        <v>70.35152087757056</v>
       </c>
       <c r="P25" t="n">
-        <v>57.8251948079831</v>
+        <v>60.1978797115512</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.03516757188309</v>
+        <v>41.6778916132816</v>
       </c>
       <c r="R25" t="n">
-        <v>21.49755062539721</v>
+        <v>22.37963868410495</v>
       </c>
       <c r="S25" t="n">
-        <v>8.332148109358359</v>
+        <v>8.674033028190292</v>
       </c>
       <c r="T25" t="n">
-        <v>2.042832348147329</v>
+        <v>2.126653898408679</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.02714877317117466</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.06586355810531</v>
+        <v>1.109598099458393</v>
       </c>
       <c r="H26" t="n">
-        <v>10.915775164446</v>
+        <v>11.36367153607827</v>
       </c>
       <c r="I26" t="n">
-        <v>41.09170482385499</v>
+        <v>42.77778072936974</v>
       </c>
       <c r="J26" t="n">
-        <v>90.4638371647406</v>
+        <v>94.17575169390686</v>
       </c>
       <c r="K26" t="n">
-        <v>135.5818415793384</v>
+        <v>141.1450392439807</v>
       </c>
       <c r="L26" t="n">
-        <v>168.2012634457038</v>
+        <v>175.1029020802805</v>
       </c>
       <c r="M26" t="n">
         <v>187.1563144971591</v>
@@ -32961,25 +32961,25 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O26" t="n">
-        <v>179.5860185757161</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P26" t="n">
-        <v>153.2725119849913</v>
+        <v>159.5615936997414</v>
       </c>
       <c r="Q26" t="n">
-        <v>115.1012733103448</v>
+        <v>119.8241117628876</v>
       </c>
       <c r="R26" t="n">
-        <v>66.9535517318327</v>
+        <v>69.70079161510334</v>
       </c>
       <c r="S26" t="n">
-        <v>24.28836583032476</v>
+        <v>25.28496669140815</v>
       </c>
       <c r="T26" t="n">
-        <v>4.665817725605995</v>
+        <v>4.857265680379117</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.08876784795667142</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.593687322743234</v>
       </c>
       <c r="H27" t="n">
-        <v>5.507774521634798</v>
+        <v>5.733769669651761</v>
       </c>
       <c r="I27" t="n">
-        <v>19.63489100582796</v>
+        <v>20.44055036637889</v>
       </c>
       <c r="J27" t="n">
-        <v>53.87964167599236</v>
+        <v>56.09043254040353</v>
       </c>
       <c r="K27" t="n">
-        <v>92.08888944733349</v>
+        <v>95.86748316420021</v>
       </c>
       <c r="L27" t="n">
         <v>112.5754335711478</v>
@@ -33046,19 +33046,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q27" t="n">
-        <v>72.79667106160724</v>
+        <v>75.78366596982055</v>
       </c>
       <c r="R27" t="n">
-        <v>35.40783657050964</v>
+        <v>36.86069184540888</v>
       </c>
       <c r="S27" t="n">
-        <v>10.59283610314412</v>
+        <v>11.02748163077892</v>
       </c>
       <c r="T27" t="n">
-        <v>2.298657940682278</v>
+        <v>2.392976533337859</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.03905837649626541</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.4977275081382016</v>
       </c>
       <c r="H28" t="n">
-        <v>4.250829864868275</v>
+        <v>4.425250026901469</v>
       </c>
       <c r="I28" t="n">
-        <v>14.37806256951355</v>
+        <v>14.96802360837428</v>
       </c>
       <c r="J28" t="n">
-        <v>33.80235568413144</v>
+        <v>35.18933482537085</v>
       </c>
       <c r="K28" t="n">
-        <v>55.54765406238907</v>
+        <v>57.82688685460195</v>
       </c>
       <c r="L28" t="n">
-        <v>71.08187281191793</v>
+        <v>73.998506073565</v>
       </c>
       <c r="M28" t="n">
-        <v>74.94586846617956</v>
+        <v>78.02104929842736</v>
       </c>
       <c r="N28" t="n">
-        <v>73.16382322630642</v>
+        <v>76.16588313173048</v>
       </c>
       <c r="O28" t="n">
-        <v>67.57863265743551</v>
+        <v>70.35152087757056</v>
       </c>
       <c r="P28" t="n">
-        <v>57.8251948079831</v>
+        <v>60.1978797115512</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.03516757188309</v>
+        <v>41.6778916132816</v>
       </c>
       <c r="R28" t="n">
-        <v>21.49755062539721</v>
+        <v>22.37963868410495</v>
       </c>
       <c r="S28" t="n">
-        <v>8.332148109358359</v>
+        <v>8.674033028190292</v>
       </c>
       <c r="T28" t="n">
-        <v>2.042832348147329</v>
+        <v>2.126653898408679</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.02714877317117466</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.06586355810531</v>
+        <v>1.109598099458393</v>
       </c>
       <c r="H29" t="n">
-        <v>10.91577516444601</v>
+        <v>11.36367153607827</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09170482385499</v>
+        <v>42.77778072936974</v>
       </c>
       <c r="J29" t="n">
-        <v>90.46383716474061</v>
+        <v>94.17575169390686</v>
       </c>
       <c r="K29" t="n">
-        <v>135.5818415793384</v>
+        <v>141.1450392439807</v>
       </c>
       <c r="L29" t="n">
-        <v>168.2012634457038</v>
+        <v>175.1029020802805</v>
       </c>
       <c r="M29" t="n">
         <v>187.1563144971591</v>
@@ -33198,25 +33198,25 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O29" t="n">
-        <v>179.5860185757161</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P29" t="n">
-        <v>153.2725119849913</v>
+        <v>159.5615936997414</v>
       </c>
       <c r="Q29" t="n">
-        <v>115.1012733103448</v>
+        <v>119.8241117628876</v>
       </c>
       <c r="R29" t="n">
-        <v>66.95355173183272</v>
+        <v>69.70079161510334</v>
       </c>
       <c r="S29" t="n">
-        <v>24.28836583032476</v>
+        <v>25.28496669140815</v>
       </c>
       <c r="T29" t="n">
-        <v>4.665817725605995</v>
+        <v>4.857265680379117</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.08876784795667142</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5702872801692707</v>
+        <v>0.593687322743234</v>
       </c>
       <c r="H30" t="n">
-        <v>5.507774521634798</v>
+        <v>5.733769669651761</v>
       </c>
       <c r="I30" t="n">
-        <v>19.63489100582796</v>
+        <v>20.44055036637889</v>
       </c>
       <c r="J30" t="n">
-        <v>53.87964167599237</v>
+        <v>56.09043254040353</v>
       </c>
       <c r="K30" t="n">
-        <v>92.08888944733349</v>
+        <v>95.86748316420021</v>
       </c>
       <c r="L30" t="n">
         <v>112.5754335711478</v>
@@ -33283,19 +33283,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q30" t="n">
-        <v>72.79667106160726</v>
+        <v>75.78366596982055</v>
       </c>
       <c r="R30" t="n">
-        <v>35.40783657050964</v>
+        <v>36.86069184540888</v>
       </c>
       <c r="S30" t="n">
-        <v>10.59283610314412</v>
+        <v>11.02748163077892</v>
       </c>
       <c r="T30" t="n">
-        <v>2.298657940682278</v>
+        <v>2.392976533337859</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.03905837649626541</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4781096985025665</v>
+        <v>0.4977275081382016</v>
       </c>
       <c r="H31" t="n">
-        <v>4.250829864868276</v>
+        <v>4.425250026901469</v>
       </c>
       <c r="I31" t="n">
-        <v>14.37806256951355</v>
+        <v>14.96802360837428</v>
       </c>
       <c r="J31" t="n">
-        <v>33.80235568413144</v>
+        <v>35.18933482537085</v>
       </c>
       <c r="K31" t="n">
-        <v>55.54765406238907</v>
+        <v>57.82688685460195</v>
       </c>
       <c r="L31" t="n">
-        <v>71.08187281191793</v>
+        <v>73.998506073565</v>
       </c>
       <c r="M31" t="n">
-        <v>74.94586846617958</v>
+        <v>78.02104929842736</v>
       </c>
       <c r="N31" t="n">
-        <v>73.16382322630642</v>
+        <v>76.16588313173048</v>
       </c>
       <c r="O31" t="n">
-        <v>67.57863265743551</v>
+        <v>70.35152087757056</v>
       </c>
       <c r="P31" t="n">
-        <v>57.8251948079831</v>
+        <v>60.1978797115512</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.03516757188309</v>
+        <v>41.6778916132816</v>
       </c>
       <c r="R31" t="n">
-        <v>21.49755062539721</v>
+        <v>22.37963868410495</v>
       </c>
       <c r="S31" t="n">
-        <v>8.332148109358359</v>
+        <v>8.674033028190292</v>
       </c>
       <c r="T31" t="n">
-        <v>2.042832348147329</v>
+        <v>2.126653898408679</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02607871082741275</v>
+        <v>0.02714877317117466</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.06586355810531</v>
+        <v>1.109598099458393</v>
       </c>
       <c r="H32" t="n">
-        <v>10.915775164446</v>
+        <v>11.36367153607827</v>
       </c>
       <c r="I32" t="n">
-        <v>41.09170482385499</v>
+        <v>42.77778072936974</v>
       </c>
       <c r="J32" t="n">
-        <v>90.4638371647406</v>
+        <v>94.17575169390686</v>
       </c>
       <c r="K32" t="n">
-        <v>135.5818415793384</v>
+        <v>141.1450392439807</v>
       </c>
       <c r="L32" t="n">
-        <v>168.2012634457038</v>
+        <v>175.1029020802805</v>
       </c>
       <c r="M32" t="n">
         <v>187.1563144971591</v>
@@ -33435,25 +33435,25 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O32" t="n">
-        <v>179.5860185757161</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P32" t="n">
-        <v>153.2725119849913</v>
+        <v>159.5615936997414</v>
       </c>
       <c r="Q32" t="n">
-        <v>115.1012733103448</v>
+        <v>119.8241117628876</v>
       </c>
       <c r="R32" t="n">
-        <v>66.9535517318327</v>
+        <v>69.70079161510334</v>
       </c>
       <c r="S32" t="n">
-        <v>24.28836583032476</v>
+        <v>25.28496669140815</v>
       </c>
       <c r="T32" t="n">
-        <v>4.665817725605995</v>
+        <v>4.857265680379117</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.08876784795667142</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.593687322743234</v>
       </c>
       <c r="H33" t="n">
-        <v>5.507774521634798</v>
+        <v>5.733769669651761</v>
       </c>
       <c r="I33" t="n">
-        <v>19.63489100582796</v>
+        <v>20.44055036637889</v>
       </c>
       <c r="J33" t="n">
-        <v>53.87964167599236</v>
+        <v>56.09043254040353</v>
       </c>
       <c r="K33" t="n">
-        <v>92.08888944733349</v>
+        <v>95.86748316420021</v>
       </c>
       <c r="L33" t="n">
         <v>112.5754335711478</v>
@@ -33520,19 +33520,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q33" t="n">
-        <v>72.79667106160724</v>
+        <v>75.78366596982055</v>
       </c>
       <c r="R33" t="n">
-        <v>35.40783657050964</v>
+        <v>36.86069184540888</v>
       </c>
       <c r="S33" t="n">
-        <v>10.59283610314412</v>
+        <v>11.02748163077892</v>
       </c>
       <c r="T33" t="n">
-        <v>2.298657940682278</v>
+        <v>2.392976533337859</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.03905837649626541</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.4977275081382016</v>
       </c>
       <c r="H34" t="n">
-        <v>4.250829864868275</v>
+        <v>4.425250026901469</v>
       </c>
       <c r="I34" t="n">
-        <v>14.37806256951355</v>
+        <v>14.96802360837428</v>
       </c>
       <c r="J34" t="n">
-        <v>33.80235568413144</v>
+        <v>35.18933482537085</v>
       </c>
       <c r="K34" t="n">
-        <v>55.54765406238907</v>
+        <v>57.82688685460195</v>
       </c>
       <c r="L34" t="n">
-        <v>71.08187281191793</v>
+        <v>73.998506073565</v>
       </c>
       <c r="M34" t="n">
-        <v>74.94586846617956</v>
+        <v>78.02104929842736</v>
       </c>
       <c r="N34" t="n">
-        <v>73.16382322630642</v>
+        <v>76.16588313173048</v>
       </c>
       <c r="O34" t="n">
-        <v>67.57863265743551</v>
+        <v>70.35152087757056</v>
       </c>
       <c r="P34" t="n">
-        <v>57.8251948079831</v>
+        <v>60.1978797115512</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.03516757188309</v>
+        <v>41.6778916132816</v>
       </c>
       <c r="R34" t="n">
-        <v>21.49755062539721</v>
+        <v>22.37963868410495</v>
       </c>
       <c r="S34" t="n">
-        <v>8.332148109358359</v>
+        <v>8.674033028190292</v>
       </c>
       <c r="T34" t="n">
-        <v>2.042832348147329</v>
+        <v>2.126653898408679</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.02714877317117466</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.06586355810531</v>
+        <v>1.109598099458393</v>
       </c>
       <c r="H35" t="n">
-        <v>10.915775164446</v>
+        <v>11.36367153607827</v>
       </c>
       <c r="I35" t="n">
-        <v>41.09170482385499</v>
+        <v>42.77778072936974</v>
       </c>
       <c r="J35" t="n">
-        <v>90.4638371647406</v>
+        <v>94.17575169390686</v>
       </c>
       <c r="K35" t="n">
-        <v>135.5818415793384</v>
+        <v>141.1450392439807</v>
       </c>
       <c r="L35" t="n">
-        <v>168.2012634457038</v>
+        <v>175.1029020802805</v>
       </c>
       <c r="M35" t="n">
         <v>187.1563144971591</v>
@@ -33672,25 +33672,25 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O35" t="n">
-        <v>179.5860185757161</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P35" t="n">
-        <v>153.2725119849913</v>
+        <v>159.5615936997414</v>
       </c>
       <c r="Q35" t="n">
-        <v>115.1012733103448</v>
+        <v>119.8241117628876</v>
       </c>
       <c r="R35" t="n">
-        <v>66.9535517318327</v>
+        <v>69.70079161510334</v>
       </c>
       <c r="S35" t="n">
-        <v>24.28836583032476</v>
+        <v>25.28496669140815</v>
       </c>
       <c r="T35" t="n">
-        <v>4.665817725605995</v>
+        <v>4.857265680379117</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.08876784795667142</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.593687322743234</v>
       </c>
       <c r="H36" t="n">
-        <v>5.507774521634798</v>
+        <v>5.733769669651761</v>
       </c>
       <c r="I36" t="n">
-        <v>19.63489100582796</v>
+        <v>20.44055036637889</v>
       </c>
       <c r="J36" t="n">
-        <v>53.87964167599236</v>
+        <v>56.09043254040353</v>
       </c>
       <c r="K36" t="n">
-        <v>92.08888944733349</v>
+        <v>95.86748316420021</v>
       </c>
       <c r="L36" t="n">
         <v>112.5754335711478</v>
@@ -33757,19 +33757,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q36" t="n">
-        <v>72.79667106160724</v>
+        <v>75.78366596982055</v>
       </c>
       <c r="R36" t="n">
-        <v>35.40783657050964</v>
+        <v>36.86069184540888</v>
       </c>
       <c r="S36" t="n">
-        <v>10.59283610314412</v>
+        <v>11.02748163077892</v>
       </c>
       <c r="T36" t="n">
-        <v>2.298657940682278</v>
+        <v>2.392976533337859</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.03905837649626541</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.4977275081382016</v>
       </c>
       <c r="H37" t="n">
-        <v>4.250829864868275</v>
+        <v>4.425250026901469</v>
       </c>
       <c r="I37" t="n">
-        <v>14.37806256951355</v>
+        <v>14.96802360837428</v>
       </c>
       <c r="J37" t="n">
-        <v>33.80235568413144</v>
+        <v>35.18933482537085</v>
       </c>
       <c r="K37" t="n">
-        <v>55.54765406238907</v>
+        <v>57.82688685460195</v>
       </c>
       <c r="L37" t="n">
-        <v>71.08187281191793</v>
+        <v>73.998506073565</v>
       </c>
       <c r="M37" t="n">
-        <v>74.94586846617956</v>
+        <v>78.02104929842736</v>
       </c>
       <c r="N37" t="n">
-        <v>73.16382322630642</v>
+        <v>76.16588313173048</v>
       </c>
       <c r="O37" t="n">
-        <v>67.57863265743551</v>
+        <v>70.35152087757056</v>
       </c>
       <c r="P37" t="n">
-        <v>57.8251948079831</v>
+        <v>60.1978797115512</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.03516757188309</v>
+        <v>41.6778916132816</v>
       </c>
       <c r="R37" t="n">
-        <v>21.49755062539721</v>
+        <v>22.37963868410495</v>
       </c>
       <c r="S37" t="n">
-        <v>8.332148109358359</v>
+        <v>8.674033028190292</v>
       </c>
       <c r="T37" t="n">
-        <v>2.042832348147329</v>
+        <v>2.126653898408679</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.02714877317117466</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.06586355810531</v>
+        <v>1.109598099458393</v>
       </c>
       <c r="H38" t="n">
-        <v>10.915775164446</v>
+        <v>11.36367153607827</v>
       </c>
       <c r="I38" t="n">
-        <v>41.09170482385499</v>
+        <v>42.77778072936974</v>
       </c>
       <c r="J38" t="n">
-        <v>90.4638371647406</v>
+        <v>94.17575169390686</v>
       </c>
       <c r="K38" t="n">
-        <v>135.5818415793384</v>
+        <v>141.1450392439807</v>
       </c>
       <c r="L38" t="n">
-        <v>168.2012634457038</v>
+        <v>175.1029020802805</v>
       </c>
       <c r="M38" t="n">
         <v>187.1563144971591</v>
@@ -33909,25 +33909,25 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O38" t="n">
-        <v>179.5860185757161</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P38" t="n">
-        <v>153.2725119849913</v>
+        <v>159.5615936997414</v>
       </c>
       <c r="Q38" t="n">
-        <v>115.1012733103448</v>
+        <v>119.8241117628876</v>
       </c>
       <c r="R38" t="n">
-        <v>66.9535517318327</v>
+        <v>69.70079161510334</v>
       </c>
       <c r="S38" t="n">
-        <v>24.28836583032476</v>
+        <v>25.28496669140815</v>
       </c>
       <c r="T38" t="n">
-        <v>4.665817725605995</v>
+        <v>4.857265680379117</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.08876784795667142</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.593687322743234</v>
       </c>
       <c r="H39" t="n">
-        <v>5.507774521634798</v>
+        <v>5.733769669651761</v>
       </c>
       <c r="I39" t="n">
-        <v>19.63489100582796</v>
+        <v>20.44055036637889</v>
       </c>
       <c r="J39" t="n">
-        <v>53.87964167599236</v>
+        <v>56.09043254040353</v>
       </c>
       <c r="K39" t="n">
-        <v>92.08888944733349</v>
+        <v>95.86748316420021</v>
       </c>
       <c r="L39" t="n">
         <v>112.5754335711478</v>
@@ -33994,19 +33994,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q39" t="n">
-        <v>72.79667106160724</v>
+        <v>75.78366596982055</v>
       </c>
       <c r="R39" t="n">
-        <v>35.40783657050964</v>
+        <v>36.86069184540888</v>
       </c>
       <c r="S39" t="n">
-        <v>10.59283610314412</v>
+        <v>11.02748163077892</v>
       </c>
       <c r="T39" t="n">
-        <v>2.298657940682278</v>
+        <v>2.392976533337859</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.03905837649626541</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.4977275081382016</v>
       </c>
       <c r="H40" t="n">
-        <v>4.250829864868275</v>
+        <v>4.425250026901469</v>
       </c>
       <c r="I40" t="n">
-        <v>14.37806256951355</v>
+        <v>14.96802360837428</v>
       </c>
       <c r="J40" t="n">
-        <v>33.80235568413144</v>
+        <v>35.18933482537085</v>
       </c>
       <c r="K40" t="n">
-        <v>55.54765406238907</v>
+        <v>57.82688685460195</v>
       </c>
       <c r="L40" t="n">
-        <v>71.08187281191793</v>
+        <v>73.998506073565</v>
       </c>
       <c r="M40" t="n">
-        <v>74.94586846617956</v>
+        <v>78.02104929842736</v>
       </c>
       <c r="N40" t="n">
-        <v>73.16382322630642</v>
+        <v>76.16588313173048</v>
       </c>
       <c r="O40" t="n">
-        <v>67.57863265743551</v>
+        <v>70.35152087757056</v>
       </c>
       <c r="P40" t="n">
-        <v>57.8251948079831</v>
+        <v>60.1978797115512</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.03516757188309</v>
+        <v>41.6778916132816</v>
       </c>
       <c r="R40" t="n">
-        <v>21.49755062539721</v>
+        <v>22.37963868410495</v>
       </c>
       <c r="S40" t="n">
-        <v>8.332148109358359</v>
+        <v>8.674033028190292</v>
       </c>
       <c r="T40" t="n">
-        <v>2.042832348147329</v>
+        <v>2.126653898408679</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.02714877317117466</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.06586355810531</v>
+        <v>1.109598099458393</v>
       </c>
       <c r="H41" t="n">
-        <v>10.915775164446</v>
+        <v>11.36367153607827</v>
       </c>
       <c r="I41" t="n">
-        <v>41.09170482385499</v>
+        <v>42.77778072936974</v>
       </c>
       <c r="J41" t="n">
-        <v>90.4638371647406</v>
+        <v>94.17575169390686</v>
       </c>
       <c r="K41" t="n">
-        <v>135.5818415793384</v>
+        <v>141.1450392439807</v>
       </c>
       <c r="L41" t="n">
-        <v>168.2012634457038</v>
+        <v>175.1029020802805</v>
       </c>
       <c r="M41" t="n">
         <v>187.1563144971591</v>
@@ -34146,25 +34146,25 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O41" t="n">
-        <v>179.5860185757161</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P41" t="n">
-        <v>153.2725119849913</v>
+        <v>159.5615936997414</v>
       </c>
       <c r="Q41" t="n">
-        <v>115.1012733103448</v>
+        <v>119.8241117628876</v>
       </c>
       <c r="R41" t="n">
-        <v>66.9535517318327</v>
+        <v>69.70079161510334</v>
       </c>
       <c r="S41" t="n">
-        <v>24.28836583032476</v>
+        <v>25.28496669140815</v>
       </c>
       <c r="T41" t="n">
-        <v>4.665817725605995</v>
+        <v>4.857265680379117</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08526908464842475</v>
+        <v>0.08876784795667142</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5702872801692705</v>
+        <v>0.593687322743234</v>
       </c>
       <c r="H42" t="n">
-        <v>5.507774521634798</v>
+        <v>5.733769669651761</v>
       </c>
       <c r="I42" t="n">
-        <v>19.63489100582796</v>
+        <v>20.44055036637889</v>
       </c>
       <c r="J42" t="n">
-        <v>53.87964167599236</v>
+        <v>56.09043254040353</v>
       </c>
       <c r="K42" t="n">
-        <v>92.08888944733349</v>
+        <v>95.86748316420021</v>
       </c>
       <c r="L42" t="n">
         <v>112.5754335711478</v>
@@ -34231,19 +34231,19 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q42" t="n">
-        <v>72.79667106160724</v>
+        <v>75.78366596982055</v>
       </c>
       <c r="R42" t="n">
-        <v>35.40783657050964</v>
+        <v>36.86069184540888</v>
       </c>
       <c r="S42" t="n">
-        <v>10.59283610314412</v>
+        <v>11.02748163077892</v>
       </c>
       <c r="T42" t="n">
-        <v>2.298657940682278</v>
+        <v>2.392976533337859</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03751890001113624</v>
+        <v>0.03905837649626541</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4781096985025664</v>
+        <v>0.4977275081382016</v>
       </c>
       <c r="H43" t="n">
-        <v>4.250829864868275</v>
+        <v>4.425250026901469</v>
       </c>
       <c r="I43" t="n">
-        <v>14.37806256951355</v>
+        <v>14.96802360837428</v>
       </c>
       <c r="J43" t="n">
-        <v>33.80235568413144</v>
+        <v>35.18933482537085</v>
       </c>
       <c r="K43" t="n">
-        <v>55.54765406238907</v>
+        <v>57.82688685460195</v>
       </c>
       <c r="L43" t="n">
-        <v>71.08187281191793</v>
+        <v>73.998506073565</v>
       </c>
       <c r="M43" t="n">
-        <v>74.94586846617956</v>
+        <v>78.02104929842736</v>
       </c>
       <c r="N43" t="n">
-        <v>73.16382322630642</v>
+        <v>76.16588313173048</v>
       </c>
       <c r="O43" t="n">
-        <v>67.57863265743551</v>
+        <v>70.35152087757056</v>
       </c>
       <c r="P43" t="n">
-        <v>57.8251948079831</v>
+        <v>60.1978797115512</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.03516757188309</v>
+        <v>41.6778916132816</v>
       </c>
       <c r="R43" t="n">
-        <v>21.49755062539721</v>
+        <v>22.37963868410495</v>
       </c>
       <c r="S43" t="n">
-        <v>8.332148109358359</v>
+        <v>8.674033028190292</v>
       </c>
       <c r="T43" t="n">
-        <v>2.042832348147329</v>
+        <v>2.126653898408679</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02607871082741274</v>
+        <v>0.02714877317117466</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34398,7 +34398,7 @@
         <v>25.28496669140815</v>
       </c>
       <c r="T44" t="n">
-        <v>4.857265680379118</v>
+        <v>4.857265680379117</v>
       </c>
       <c r="U44" t="n">
         <v>0.08876784795667142</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5936873227432341</v>
+        <v>0.593687322743234</v>
       </c>
       <c r="H45" t="n">
         <v>5.733769669651761</v>
@@ -34447,10 +34447,10 @@
         <v>20.44055036637889</v>
       </c>
       <c r="J45" t="n">
-        <v>56.09043254040354</v>
+        <v>56.09043254040353</v>
       </c>
       <c r="K45" t="n">
-        <v>95.86748316420022</v>
+        <v>95.86748316420021</v>
       </c>
       <c r="L45" t="n">
         <v>112.5754335711478</v>
@@ -34480,7 +34480,7 @@
         <v>2.392976533337859</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03905837649626542</v>
+        <v>0.03905837649626541</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34526,10 +34526,10 @@
         <v>14.96802360837428</v>
       </c>
       <c r="J46" t="n">
-        <v>35.18933482537086</v>
+        <v>35.18933482537085</v>
       </c>
       <c r="K46" t="n">
-        <v>57.82688685460196</v>
+        <v>57.82688685460195</v>
       </c>
       <c r="L46" t="n">
         <v>73.998506073565</v>
@@ -34559,7 +34559,7 @@
         <v>2.126653898408679</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02714877317117467</v>
+        <v>0.02714877317117466</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
